--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1746008.558369436</v>
+        <v>1745250.066784559</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2475318.589985259</v>
+        <v>2475318.589985261</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736542</v>
+        <v>504792.0292736558</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9513687.795849184</v>
+        <v>9513687.795849182</v>
       </c>
     </row>
     <row r="11">
@@ -677,43 +677,43 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,61 +735,61 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="T3" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -814,70 +814,70 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="R4" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="C4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -914,49 +914,49 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="W5" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.816525072005941</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>10.00967878293136</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="T6" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>10.00967878293136</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
     </row>
     <row r="7">
@@ -1063,61 +1063,61 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8.816525072005941</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="W7" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="X7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>103.7116606157592</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="U8" t="n">
-        <v>103.7116606157592</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>69.3966052070746</v>
       </c>
       <c r="W8" t="n">
-        <v>83.3763621837295</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>103.7116606157592</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>32.1628044543562</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>103.7116606157592</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="X9" t="n">
-        <v>96.12241240735099</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>91.3492306703607</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>91.34923067035986</v>
       </c>
       <c r="F10" t="n">
-        <v>103.7116606157592</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>103.7116606157592</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>103.7116606157592</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>265.0996913661185</v>
       </c>
       <c r="E11" t="n">
-        <v>286.841828936024</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>85.3238573886108</v>
       </c>
       <c r="G11" t="n">
-        <v>307.4819158243449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>220.7348763792754</v>
       </c>
       <c r="I11" t="n">
-        <v>49.16619245923145</v>
+        <v>49.16619245923154</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.76453050733635</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>116.0837982549063</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>148.3032493964494</v>
       </c>
       <c r="V11" t="n">
         <v>229.6134476040879</v>
@@ -1433,7 +1433,7 @@
         <v>254.9135470820448</v>
       </c>
       <c r="X11" t="n">
-        <v>100.3654961017285</v>
+        <v>274.2138053147914</v>
       </c>
       <c r="Y11" t="n">
         <v>285.6104031109901</v>
@@ -1467,7 +1467,7 @@
         <v>96.53563928035226</v>
       </c>
       <c r="I12" t="n">
-        <v>59.13248114549948</v>
+        <v>59.13248114549953</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>43.73928845252203</v>
+        <v>43.7392884525221</v>
       </c>
       <c r="S12" t="n">
         <v>146.6502270405049</v>
@@ -1540,13 +1540,13 @@
         <v>46.95981466555047</v>
       </c>
       <c r="G13" t="n">
-        <v>63.02593569724554</v>
+        <v>63.02593569724485</v>
       </c>
       <c r="H13" t="n">
         <v>51.9284041688578</v>
       </c>
       <c r="I13" t="n">
-        <v>32.49235992740587</v>
+        <v>32.4923599274059</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65193856717566</v>
+        <v>34.65193856717572</v>
       </c>
       <c r="S13" t="n">
-        <v>103.9416212199253</v>
+        <v>103.9416212199251</v>
       </c>
       <c r="T13" t="n">
         <v>125.9599172195769</v>
@@ -1607,13 +1607,13 @@
         <v>286.1070703639087</v>
       </c>
       <c r="C14" t="n">
-        <v>274.1183873215905</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>265.0996913661185</v>
       </c>
       <c r="E14" t="n">
-        <v>286.841828936024</v>
+        <v>53.42859968620242</v>
       </c>
       <c r="F14" t="n">
         <v>306.0136450240012</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>220.7348763792754</v>
       </c>
       <c r="I14" t="n">
-        <v>49.16619245923147</v>
+        <v>49.16619245923145</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.7645305073363</v>
+        <v>70.76453050733632</v>
       </c>
       <c r="T14" t="n">
         <v>116.0837982549063</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>148.3032493964494</v>
       </c>
       <c r="V14" t="n">
-        <v>91.11995680840145</v>
+        <v>229.6134476040879</v>
       </c>
       <c r="W14" t="n">
         <v>254.9135470820448</v>
@@ -1704,7 +1704,7 @@
         <v>96.53563928035226</v>
       </c>
       <c r="I15" t="n">
-        <v>59.1324811454995</v>
+        <v>59.13248114549949</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.72378123860582</v>
+        <v>77.72378123860584</v>
       </c>
       <c r="C16" t="n">
-        <v>63.92377608400631</v>
+        <v>63.92377608400632</v>
       </c>
       <c r="D16" t="n">
-        <v>47.5451404815847</v>
+        <v>47.54514048158471</v>
       </c>
       <c r="E16" t="n">
-        <v>46.49289033736414</v>
+        <v>46.49289033736416</v>
       </c>
       <c r="F16" t="n">
-        <v>46.95981466555045</v>
+        <v>46.95981466555047</v>
       </c>
       <c r="G16" t="n">
-        <v>63.02593569724553</v>
+        <v>63.02593569724554</v>
       </c>
       <c r="H16" t="n">
-        <v>51.92840416885777</v>
+        <v>51.9284041688578</v>
       </c>
       <c r="I16" t="n">
-        <v>32.49235992740586</v>
+        <v>32.49235992740587</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65193856717567</v>
+        <v>34.65193856717569</v>
       </c>
       <c r="S16" t="n">
         <v>103.9416212199251</v>
@@ -1847,19 +1847,19 @@
         <v>219.415005897553</v>
       </c>
       <c r="D17" t="n">
-        <v>210.396309942081</v>
+        <v>210.3963099420809</v>
       </c>
       <c r="E17" t="n">
         <v>232.1384475119865</v>
       </c>
       <c r="F17" t="n">
-        <v>251.3102635999637</v>
+        <v>251.3102635999636</v>
       </c>
       <c r="G17" t="n">
-        <v>252.7785344003074</v>
+        <v>252.7785344003083</v>
       </c>
       <c r="H17" t="n">
-        <v>166.0314949552379</v>
+        <v>166.0314949552378</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>16.0611490832988</v>
+        <v>16.06114908329877</v>
       </c>
       <c r="T17" t="n">
-        <v>61.3804168308688</v>
+        <v>61.38041683086877</v>
       </c>
       <c r="U17" t="n">
-        <v>93.59986797241189</v>
+        <v>93.59986797241186</v>
       </c>
       <c r="V17" t="n">
-        <v>174.9100661800504</v>
+        <v>174.9100661800503</v>
       </c>
       <c r="W17" t="n">
-        <v>200.2101656580073</v>
+        <v>200.2101656580072</v>
       </c>
       <c r="X17" t="n">
-        <v>219.5104238907537</v>
+        <v>219.5104238907539</v>
       </c>
       <c r="Y17" t="n">
         <v>230.9070216869526</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.02039981456832</v>
+        <v>23.02039981456829</v>
       </c>
       <c r="C19" t="n">
-        <v>9.220394659968804</v>
+        <v>9.220394659968775</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8.322554273208024</v>
+        <v>8.322554273207995</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.23823979588754</v>
+        <v>49.23823979588752</v>
       </c>
       <c r="T19" t="n">
-        <v>71.25653579553935</v>
+        <v>71.25653579553932</v>
       </c>
       <c r="U19" t="n">
-        <v>125.6075447497514</v>
+        <v>181.3944609771731</v>
       </c>
       <c r="V19" t="n">
-        <v>99.42853621419391</v>
+        <v>99.42853621419388</v>
       </c>
       <c r="W19" t="n">
-        <v>124.5954222848072</v>
+        <v>124.5954222848071</v>
       </c>
       <c r="X19" t="n">
-        <v>126.0274405080318</v>
+        <v>70.24052428061026</v>
       </c>
       <c r="Y19" t="n">
-        <v>61.11539203667797</v>
+        <v>61.11539203667795</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231.4036889398713</v>
+        <v>231.4036889398712</v>
       </c>
       <c r="C20" t="n">
         <v>219.415005897553</v>
       </c>
       <c r="D20" t="n">
-        <v>210.396309942081</v>
+        <v>210.3963099420809</v>
       </c>
       <c r="E20" t="n">
-        <v>232.1384475119865</v>
+        <v>232.1384475119875</v>
       </c>
       <c r="F20" t="n">
-        <v>251.3102635999637</v>
+        <v>251.3102635999636</v>
       </c>
       <c r="G20" t="n">
         <v>252.7785344003074</v>
       </c>
       <c r="H20" t="n">
-        <v>166.0314949552379</v>
+        <v>166.0314949552378</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>16.06114908329883</v>
+        <v>16.06114908329877</v>
       </c>
       <c r="T20" t="n">
-        <v>61.38041683086883</v>
+        <v>61.38041683086877</v>
       </c>
       <c r="U20" t="n">
-        <v>93.59986797241191</v>
+        <v>93.59986797241186</v>
       </c>
       <c r="V20" t="n">
-        <v>174.9100661800504</v>
+        <v>174.9100661800503</v>
       </c>
       <c r="W20" t="n">
-        <v>200.2101656580073</v>
+        <v>200.2101656580072</v>
       </c>
       <c r="X20" t="n">
         <v>219.5104238907539</v>
       </c>
       <c r="Y20" t="n">
-        <v>230.9070216869527</v>
+        <v>230.9070216869526</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23.02039981456835</v>
+        <v>23.02039981456829</v>
       </c>
       <c r="C22" t="n">
-        <v>9.220394659968832</v>
+        <v>9.220394659968775</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>8.322554273208052</v>
+        <v>8.322554273207995</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>55.78691622742166</v>
       </c>
       <c r="S22" t="n">
-        <v>49.23823979588757</v>
+        <v>49.23823979588752</v>
       </c>
       <c r="T22" t="n">
-        <v>71.25653579553938</v>
+        <v>71.25653579553932</v>
       </c>
       <c r="U22" t="n">
-        <v>181.3944609771727</v>
+        <v>125.6075447497514</v>
       </c>
       <c r="V22" t="n">
-        <v>99.42853621419394</v>
+        <v>99.42853621419388</v>
       </c>
       <c r="W22" t="n">
-        <v>124.5954222848072</v>
+        <v>124.5954222848071</v>
       </c>
       <c r="X22" t="n">
-        <v>70.24052428061032</v>
+        <v>70.24052428061026</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.115392036678</v>
+        <v>61.11539203667795</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>210.396309942081</v>
       </c>
       <c r="E23" t="n">
-        <v>232.1384475119866</v>
+        <v>232.1384475119865</v>
       </c>
       <c r="F23" t="n">
         <v>251.3102635999637</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>16.06114908329886</v>
+        <v>16.06114908329883</v>
       </c>
       <c r="T23" t="n">
-        <v>61.38041683086885</v>
+        <v>61.38041683086883</v>
       </c>
       <c r="U23" t="n">
-        <v>93.59986797241194</v>
+        <v>93.59986797241191</v>
       </c>
       <c r="V23" t="n">
         <v>174.9100661800504</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23.02039981456838</v>
+        <v>23.02039981456835</v>
       </c>
       <c r="C25" t="n">
-        <v>9.220394659968861</v>
+        <v>9.220394659968832</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>8.32255427320808</v>
+        <v>8.322554273208052</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>55.78691622742121</v>
       </c>
       <c r="S25" t="n">
-        <v>105.0251560233084</v>
+        <v>49.23823979588757</v>
       </c>
       <c r="T25" t="n">
-        <v>71.25653579553941</v>
+        <v>71.25653579553938</v>
       </c>
       <c r="U25" t="n">
         <v>125.6075447497515</v>
       </c>
       <c r="V25" t="n">
-        <v>99.42853621419397</v>
+        <v>99.42853621419394</v>
       </c>
       <c r="W25" t="n">
         <v>124.5954222848072</v>
       </c>
       <c r="X25" t="n">
-        <v>70.24052428061034</v>
+        <v>70.24052428061032</v>
       </c>
       <c r="Y25" t="n">
-        <v>61.11539203667803</v>
+        <v>61.115392036678</v>
       </c>
     </row>
     <row r="26">
@@ -2561,10 +2561,10 @@
         <v>265.0996913661185</v>
       </c>
       <c r="E26" t="n">
-        <v>286.841828936024</v>
+        <v>268.1674306276217</v>
       </c>
       <c r="F26" t="n">
-        <v>306.0136450240012</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>307.4819158243449</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.7645305073363</v>
+        <v>70.76453050733632</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>116.0837982549063</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>148.3032493964494</v>
       </c>
       <c r="V26" t="n">
         <v>229.6134476040879</v>
@@ -2621,7 +2621,7 @@
         <v>274.2138053147914</v>
       </c>
       <c r="Y26" t="n">
-        <v>225.3094074299444</v>
+        <v>285.6104031109901</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>96.53563928035226</v>
       </c>
       <c r="I27" t="n">
-        <v>59.1324811454995</v>
+        <v>59.13248114549949</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.72378123860582</v>
+        <v>77.72378123860584</v>
       </c>
       <c r="C28" t="n">
-        <v>63.92377608400631</v>
+        <v>63.92377608400632</v>
       </c>
       <c r="D28" t="n">
-        <v>47.5451404815847</v>
+        <v>47.54514048158471</v>
       </c>
       <c r="E28" t="n">
-        <v>46.49289033736414</v>
+        <v>46.49289033736416</v>
       </c>
       <c r="F28" t="n">
-        <v>46.95981466555045</v>
+        <v>46.95981466555047</v>
       </c>
       <c r="G28" t="n">
-        <v>63.02593569724553</v>
+        <v>63.02593569724554</v>
       </c>
       <c r="H28" t="n">
-        <v>51.92840416885777</v>
+        <v>51.92840416885779</v>
       </c>
       <c r="I28" t="n">
-        <v>32.49235992740586</v>
+        <v>32.49235992740588</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65193856717567</v>
+        <v>34.65193856717568</v>
       </c>
       <c r="S28" t="n">
         <v>103.9416212199251</v>
@@ -2795,13 +2795,13 @@
         <v>274.1183873215905</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>265.0996913661185</v>
       </c>
       <c r="E29" t="n">
         <v>286.841828936024</v>
       </c>
       <c r="F29" t="n">
-        <v>306.0136450240012</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>307.4819158243449</v>
@@ -2810,7 +2810,7 @@
         <v>220.7348763792754</v>
       </c>
       <c r="I29" t="n">
-        <v>49.16619245923144</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>274.2138053147914</v>
       </c>
       <c r="Y29" t="n">
-        <v>176.8558586854766</v>
+        <v>266.9360048025879</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>96.53563928035226</v>
       </c>
       <c r="I30" t="n">
-        <v>59.13248114549949</v>
+        <v>59.1324811454995</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65193856717566</v>
+        <v>34.65193856717567</v>
       </c>
       <c r="S31" t="n">
         <v>103.9416212199251</v>
@@ -3004,7 +3004,7 @@
         <v>125.9599172195769</v>
       </c>
       <c r="U31" t="n">
-        <v>180.3109261737889</v>
+        <v>180.310926173789</v>
       </c>
       <c r="V31" t="n">
         <v>154.1319176382314</v>
@@ -3080,7 +3080,7 @@
         <v>21.59833804810486</v>
       </c>
       <c r="T32" t="n">
-        <v>66.91760579567486</v>
+        <v>66.91760579567487</v>
       </c>
       <c r="U32" t="n">
         <v>99.13705693721795</v>
@@ -3266,13 +3266,13 @@
         <v>231.4036889398713</v>
       </c>
       <c r="C35" t="n">
-        <v>219.4150058975531</v>
+        <v>219.415005897553</v>
       </c>
       <c r="D35" t="n">
         <v>210.396309942081</v>
       </c>
       <c r="E35" t="n">
-        <v>232.1384475119866</v>
+        <v>232.1384475119865</v>
       </c>
       <c r="F35" t="n">
         <v>251.3102635999637</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.06114908329889</v>
+        <v>16.06114908329883</v>
       </c>
       <c r="T35" t="n">
-        <v>61.38041683086888</v>
+        <v>61.38041683086883</v>
       </c>
       <c r="U35" t="n">
-        <v>93.59986797241197</v>
+        <v>93.59986797241191</v>
       </c>
       <c r="V35" t="n">
         <v>174.9100661800504</v>
       </c>
       <c r="W35" t="n">
-        <v>200.2101656580074</v>
+        <v>200.2101656580073</v>
       </c>
       <c r="X35" t="n">
-        <v>219.510423890754</v>
+        <v>219.5104238907539</v>
       </c>
       <c r="Y35" t="n">
         <v>230.9070216869527</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>23.02039981456841</v>
+        <v>23.02039981456835</v>
       </c>
       <c r="C37" t="n">
-        <v>9.220394659968889</v>
+        <v>9.220394659968832</v>
       </c>
       <c r="D37" t="n">
-        <v>55.78691622742065</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.322554273208109</v>
+        <v>8.322554273208052</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.23823979588763</v>
+        <v>49.23823979588757</v>
       </c>
       <c r="T37" t="n">
-        <v>71.25653579553943</v>
+        <v>71.25653579553938</v>
       </c>
       <c r="U37" t="n">
         <v>125.6075447497515</v>
       </c>
       <c r="V37" t="n">
-        <v>99.428536214194</v>
+        <v>99.42853621419394</v>
       </c>
       <c r="W37" t="n">
-        <v>124.5954222848073</v>
+        <v>124.5954222848072</v>
       </c>
       <c r="X37" t="n">
-        <v>70.24052428061037</v>
+        <v>70.24052428061032</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.11539203667806</v>
+        <v>116.9023082640992</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>210.396309942081</v>
       </c>
       <c r="E38" t="n">
-        <v>232.1384475119866</v>
+        <v>232.1384475119865</v>
       </c>
       <c r="F38" t="n">
         <v>251.3102635999637</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.06114908329886</v>
+        <v>16.06114908329883</v>
       </c>
       <c r="T38" t="n">
-        <v>61.38041683086885</v>
+        <v>61.38041683086883</v>
       </c>
       <c r="U38" t="n">
-        <v>93.59986797241194</v>
+        <v>93.59986797241191</v>
       </c>
       <c r="V38" t="n">
         <v>174.9100661800504</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.02039981456838</v>
+        <v>23.02039981456835</v>
       </c>
       <c r="C40" t="n">
-        <v>9.220394659968861</v>
+        <v>9.220394659968832</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>8.32255427320808</v>
+        <v>8.322554273208052</v>
       </c>
       <c r="H40" t="n">
-        <v>55.78691622742081</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>20.68609572019691</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.2382397958876</v>
+        <v>49.23823979588757</v>
       </c>
       <c r="T40" t="n">
-        <v>71.25653579553941</v>
+        <v>106.3573563027637</v>
       </c>
       <c r="U40" t="n">
         <v>125.6075447497515</v>
       </c>
       <c r="V40" t="n">
-        <v>99.42853621419397</v>
+        <v>99.42853621419394</v>
       </c>
       <c r="W40" t="n">
         <v>124.5954222848072</v>
       </c>
       <c r="X40" t="n">
-        <v>70.24052428061034</v>
+        <v>70.24052428061032</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.11539203667803</v>
+        <v>61.115392036678</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>258.3157233651134</v>
       </c>
       <c r="H41" t="n">
-        <v>171.5686839200439</v>
+        <v>94.04803841275745</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>21.59833804810486</v>
       </c>
       <c r="T41" t="n">
-        <v>66.91760579567486</v>
+        <v>66.91760579567487</v>
       </c>
       <c r="U41" t="n">
         <v>99.13705693721795</v>
@@ -3800,7 +3800,7 @@
         <v>180.4472551448564</v>
       </c>
       <c r="W41" t="n">
-        <v>128.2267091155279</v>
+        <v>205.7473546228133</v>
       </c>
       <c r="X41" t="n">
         <v>225.0476128555599</v>
@@ -3992,7 +3992,7 @@
         <v>258.3157233651134</v>
       </c>
       <c r="H44" t="n">
-        <v>171.5686839200439</v>
+        <v>94.0480384127593</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>21.59833804810486</v>
       </c>
       <c r="T44" t="n">
-        <v>66.91760579567486</v>
+        <v>66.91760579567487</v>
       </c>
       <c r="U44" t="n">
         <v>99.13705693721795</v>
@@ -4043,7 +4043,7 @@
         <v>225.0476128555599</v>
       </c>
       <c r="Y44" t="n">
-        <v>158.9235651444746</v>
+        <v>236.4442106517587</v>
       </c>
     </row>
     <row r="45">
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C2" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D2" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E2" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F2" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G2" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H2" t="n">
-        <v>9.70635518344859</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I2" t="n">
         <v>0.8007743026345088</v>
@@ -4334,16 +4334,16 @@
         <v>20.6199382928386</v>
       </c>
       <c r="L2" t="n">
-        <v>20.6199382928386</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="M2" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="N2" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O2" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P2" t="n">
         <v>40.03871513172544</v>
@@ -4358,22 +4358,22 @@
         <v>40.03871513172544</v>
       </c>
       <c r="T2" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="U2" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V2" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W2" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X2" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y2" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C3" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D3" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="E3" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="F3" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H3" t="n">
         <v>0.8007743026345088</v>
@@ -4407,52 +4407,52 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J3" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K3" t="n">
         <v>10.71035629773655</v>
       </c>
       <c r="L3" t="n">
-        <v>20.6199382928386</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M3" t="n">
-        <v>20.6199382928386</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N3" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O3" t="n">
         <v>30.12913313662339</v>
       </c>
       <c r="P3" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q3" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R3" t="n">
-        <v>31.13313425091136</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S3" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T3" t="n">
-        <v>31.13313425091136</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="U3" t="n">
-        <v>31.13313425091136</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="V3" t="n">
-        <v>31.13313425091136</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="W3" t="n">
-        <v>31.13313425091136</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="X3" t="n">
-        <v>31.13313425091136</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.02234760148574</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C4" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D4" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E4" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F4" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G4" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H4" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I4" t="n">
         <v>0.8007743026345088</v>
@@ -4489,16 +4489,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K4" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8007743026345088</v>
+      </c>
+      <c r="M4" t="n">
         <v>10.3099691464193</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>20.21955114152135</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20.21955114152135</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30.12913313662339</v>
       </c>
       <c r="O4" t="n">
         <v>30.12913313662339</v>
@@ -4507,31 +4507,31 @@
         <v>40.03871513172544</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R4" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="S4" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="T4" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="U4" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V4" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="X4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y4" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="F5" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G5" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H5" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I5" t="n">
         <v>0.8007743026345088</v>
@@ -4568,22 +4568,22 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K5" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="L5" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M5" t="n">
-        <v>10.71035629773655</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N5" t="n">
-        <v>10.71035629773655</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O5" t="n">
-        <v>20.6199382928386</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P5" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q5" t="n">
         <v>40.03871513172544</v>
@@ -4601,16 +4601,16 @@
         <v>40.03871513172544</v>
       </c>
       <c r="V5" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="W5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G6" t="n">
         <v>0.8007743026345088</v>
@@ -4647,22 +4647,22 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K6" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="L6" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M6" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N6" t="n">
-        <v>30.52952028794065</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O6" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P6" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q6" t="n">
         <v>40.03871513172544</v>
@@ -4671,25 +4671,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S6" t="n">
-        <v>29.92792848229982</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T6" t="n">
+        <v>31.13313425091136</v>
+      </c>
+      <c r="U6" t="n">
         <v>21.02234760148574</v>
       </c>
-      <c r="U6" t="n">
-        <v>10.91156095206012</v>
-      </c>
       <c r="V6" t="n">
-        <v>10.91156095206012</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W6" t="n">
-        <v>10.91156095206012</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X6" t="n">
         <v>10.91156095206012</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F7" t="n">
         <v>0.8007743026345088</v>
@@ -4726,16 +4726,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L7" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M7" t="n">
         <v>20.21955114152135</v>
       </c>
       <c r="N7" t="n">
-        <v>30.12913313662339</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O7" t="n">
         <v>30.12913313662339</v>
@@ -4747,28 +4747,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R7" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="S7" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T7" t="n">
         <v>31.13313425091136</v>
       </c>
       <c r="U7" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V7" t="n">
-        <v>31.13313425091136</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W7" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="X7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.47130200409432</v>
+        <v>239.9898082985555</v>
       </c>
       <c r="C8" t="n">
-        <v>30.47130200409432</v>
+        <v>239.9898082985555</v>
       </c>
       <c r="D8" t="n">
-        <v>30.47130200409432</v>
+        <v>135.2305551513249</v>
       </c>
       <c r="E8" t="n">
-        <v>30.47130200409432</v>
+        <v>30.47130200409424</v>
       </c>
       <c r="F8" t="n">
-        <v>20.3605153546687</v>
+        <v>20.36051535466863</v>
       </c>
       <c r="G8" t="n">
-        <v>8.296932849260738</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="H8" t="n">
-        <v>8.296932849260738</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="I8" t="n">
-        <v>8.296932849260738</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="J8" t="n">
-        <v>12.39075674769501</v>
+        <v>80.29547712206633</v>
       </c>
       <c r="K8" t="n">
-        <v>115.0653007572966</v>
+        <v>182.9700211316671</v>
       </c>
       <c r="L8" t="n">
-        <v>115.0653007572966</v>
+        <v>182.9700211316671</v>
       </c>
       <c r="M8" t="n">
-        <v>115.0653007572966</v>
+        <v>285.6445651412678</v>
       </c>
       <c r="N8" t="n">
-        <v>115.0653007572966</v>
+        <v>285.6445651412678</v>
       </c>
       <c r="O8" t="n">
-        <v>217.7398447668983</v>
+        <v>388.3191091508685</v>
       </c>
       <c r="P8" t="n">
-        <v>320.4143887764999</v>
+        <v>414.8466424630333</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.8466424630369</v>
+        <v>414.8466424630333</v>
       </c>
       <c r="R8" t="n">
-        <v>324.2083559588903</v>
+        <v>414.8466424630333</v>
       </c>
       <c r="S8" t="n">
-        <v>324.2083559588903</v>
+        <v>414.8466424630333</v>
       </c>
       <c r="T8" t="n">
-        <v>219.4491028116587</v>
+        <v>310.0873893158026</v>
       </c>
       <c r="U8" t="n">
-        <v>114.6898496644271</v>
+        <v>310.0873893158026</v>
       </c>
       <c r="V8" t="n">
-        <v>114.6898496644271</v>
+        <v>239.9898082985555</v>
       </c>
       <c r="W8" t="n">
-        <v>30.47130200409432</v>
+        <v>239.9898082985555</v>
       </c>
       <c r="X8" t="n">
-        <v>30.47130200409432</v>
+        <v>239.9898082985555</v>
       </c>
       <c r="Y8" t="n">
-        <v>30.47130200409432</v>
+        <v>239.9898082985555</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>212.9940434497942</v>
+        <v>40.78461411628713</v>
       </c>
       <c r="C9" t="n">
-        <v>212.9940434497942</v>
+        <v>40.78461411628713</v>
       </c>
       <c r="D9" t="n">
-        <v>108.2347903025627</v>
+        <v>40.78461411628713</v>
       </c>
       <c r="E9" t="n">
-        <v>108.2347903025627</v>
+        <v>40.78461411628713</v>
       </c>
       <c r="F9" t="n">
-        <v>108.2347903025627</v>
+        <v>40.78461411628713</v>
       </c>
       <c r="G9" t="n">
-        <v>108.2347903025627</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="H9" t="n">
-        <v>8.296932849260738</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="I9" t="n">
-        <v>8.296932849260738</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="J9" t="n">
-        <v>68.55107938236688</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="K9" t="n">
-        <v>171.2256233919685</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="L9" t="n">
-        <v>171.2256233919685</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="M9" t="n">
-        <v>209.4975544438337</v>
+        <v>110.9714768588614</v>
       </c>
       <c r="N9" t="n">
-        <v>209.4975544438337</v>
+        <v>213.6460208684621</v>
       </c>
       <c r="O9" t="n">
-        <v>312.1720984534353</v>
+        <v>316.3205648780629</v>
       </c>
       <c r="P9" t="n">
-        <v>414.8466424630369</v>
+        <v>316.3205648780629</v>
       </c>
       <c r="Q9" t="n">
-        <v>414.8466424630369</v>
+        <v>414.8466424630333</v>
       </c>
       <c r="R9" t="n">
-        <v>414.8466424630369</v>
+        <v>355.0623735579791</v>
       </c>
       <c r="S9" t="n">
-        <v>310.0873893158054</v>
+        <v>355.0623735579791</v>
       </c>
       <c r="T9" t="n">
-        <v>310.0873893158054</v>
+        <v>250.3031204107484</v>
       </c>
       <c r="U9" t="n">
-        <v>310.0873893158054</v>
+        <v>145.5438672635178</v>
       </c>
       <c r="V9" t="n">
-        <v>310.0873893158054</v>
+        <v>145.5438672635178</v>
       </c>
       <c r="W9" t="n">
-        <v>310.0873893158054</v>
+        <v>40.78461411628713</v>
       </c>
       <c r="X9" t="n">
-        <v>212.9940434497942</v>
+        <v>40.78461411628713</v>
       </c>
       <c r="Y9" t="n">
-        <v>212.9940434497942</v>
+        <v>40.78461411628713</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0873893158054</v>
+        <v>100.5688830213413</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0873893158054</v>
+        <v>100.5688830213413</v>
       </c>
       <c r="D10" t="n">
-        <v>217.8154391437238</v>
+        <v>100.5688830213413</v>
       </c>
       <c r="E10" t="n">
-        <v>217.8154391437238</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="F10" t="n">
-        <v>113.0561859964923</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="G10" t="n">
-        <v>113.0561859964923</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="H10" t="n">
-        <v>113.0561859964923</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="I10" t="n">
-        <v>8.296932849260738</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="J10" t="n">
-        <v>8.296932849260738</v>
+        <v>8.296932849260665</v>
       </c>
       <c r="K10" t="n">
-        <v>41.90112059390415</v>
+        <v>41.90112059390407</v>
       </c>
       <c r="L10" t="n">
         <v>142.5081999941636</v>
       </c>
       <c r="M10" t="n">
-        <v>150.7399682296078</v>
+        <v>245.1827440037643</v>
       </c>
       <c r="N10" t="n">
-        <v>253.4145122392094</v>
+        <v>316.3829959673436</v>
       </c>
       <c r="O10" t="n">
-        <v>351.8781587348991</v>
+        <v>414.8466424630333</v>
       </c>
       <c r="P10" t="n">
-        <v>414.8466424630369</v>
+        <v>414.8466424630333</v>
       </c>
       <c r="Q10" t="n">
-        <v>414.8466424630369</v>
+        <v>414.8466424630333</v>
       </c>
       <c r="R10" t="n">
-        <v>414.8466424630369</v>
+        <v>414.8466424630333</v>
       </c>
       <c r="S10" t="n">
-        <v>414.8466424630369</v>
+        <v>414.8466424630333</v>
       </c>
       <c r="T10" t="n">
-        <v>310.0873893158054</v>
+        <v>310.0873893158026</v>
       </c>
       <c r="U10" t="n">
-        <v>310.0873893158054</v>
+        <v>205.328136168572</v>
       </c>
       <c r="V10" t="n">
-        <v>310.0873893158054</v>
+        <v>205.328136168572</v>
       </c>
       <c r="W10" t="n">
-        <v>310.0873893158054</v>
+        <v>100.5688830213413</v>
       </c>
       <c r="X10" t="n">
-        <v>310.0873893158054</v>
+        <v>100.5688830213413</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.0873893158054</v>
+        <v>100.5688830213413</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1470.392796920057</v>
+        <v>956.2514965445446</v>
       </c>
       <c r="C11" t="n">
-        <v>1193.505536999259</v>
+        <v>679.364236623746</v>
       </c>
       <c r="D11" t="n">
-        <v>925.7280709728766</v>
+        <v>411.5867705973637</v>
       </c>
       <c r="E11" t="n">
-        <v>635.9888498253779</v>
+        <v>411.5867705973637</v>
       </c>
       <c r="F11" t="n">
-        <v>635.9888498253779</v>
+        <v>325.4010560634134</v>
       </c>
       <c r="G11" t="n">
-        <v>325.4010560634133</v>
+        <v>325.4010560634134</v>
       </c>
       <c r="H11" t="n">
-        <v>102.4365344681856</v>
+        <v>102.4365344681857</v>
       </c>
       <c r="I11" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229525</v>
       </c>
       <c r="J11" t="n">
         <v>163.8436449696104</v>
       </c>
       <c r="K11" t="n">
-        <v>462.5418977570548</v>
+        <v>462.5418977570545</v>
       </c>
       <c r="L11" t="n">
-        <v>883.0734999452907</v>
+        <v>883.0734999452901</v>
       </c>
       <c r="M11" t="n">
         <v>1357.145593505591</v>
       </c>
       <c r="N11" t="n">
-        <v>1817.617840772575</v>
+        <v>1817.617840772573</v>
       </c>
       <c r="O11" t="n">
-        <v>2200.185737089439</v>
+        <v>2200.185737089437</v>
       </c>
       <c r="P11" t="n">
-        <v>2494.541125713732</v>
+        <v>2494.541125713729</v>
       </c>
       <c r="Q11" t="n">
-        <v>2638.685690114765</v>
+        <v>2638.685690114763</v>
       </c>
       <c r="R11" t="n">
-        <v>2638.685690114765</v>
+        <v>2638.685690114763</v>
       </c>
       <c r="S11" t="n">
-        <v>2638.685690114765</v>
+        <v>2567.206366369978</v>
       </c>
       <c r="T11" t="n">
-        <v>2638.685690114765</v>
+        <v>2449.950004496336</v>
       </c>
       <c r="U11" t="n">
-        <v>2638.685690114765</v>
+        <v>2300.14874247972</v>
       </c>
       <c r="V11" t="n">
-        <v>2406.7529147571</v>
+        <v>2068.215967122055</v>
       </c>
       <c r="W11" t="n">
-        <v>2149.264483361095</v>
+        <v>1810.72753572605</v>
       </c>
       <c r="X11" t="n">
-        <v>2047.88519436945</v>
+        <v>1533.743893993937</v>
       </c>
       <c r="Y11" t="n">
-        <v>1759.389837691682</v>
+        <v>1245.24853731617</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>112.5034927371433</v>
       </c>
       <c r="I12" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229525</v>
       </c>
       <c r="J12" t="n">
-        <v>52.7737138022953</v>
+        <v>136.2985107039748</v>
       </c>
       <c r="K12" t="n">
-        <v>322.0375143370334</v>
+        <v>405.5623112387127</v>
       </c>
       <c r="L12" t="n">
-        <v>426.8745668253054</v>
+        <v>824.8641966342693</v>
       </c>
       <c r="M12" t="n">
-        <v>974.3166047880868</v>
+        <v>1372.306234597051</v>
       </c>
       <c r="N12" t="n">
-        <v>1549.642707538387</v>
+        <v>1947.63233734735</v>
       </c>
       <c r="O12" t="n">
         <v>2000.445460910347</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>408.7013111376639</v>
+        <v>408.7013111376631</v>
       </c>
       <c r="C13" t="n">
-        <v>344.1318403457383</v>
+        <v>344.1318403457375</v>
       </c>
       <c r="D13" t="n">
-        <v>296.1064459198951</v>
+        <v>296.1064459198943</v>
       </c>
       <c r="E13" t="n">
-        <v>249.1439304276081</v>
+        <v>249.1439304276074</v>
       </c>
       <c r="F13" t="n">
-        <v>201.7097741997793</v>
+        <v>201.7097741997786</v>
       </c>
       <c r="G13" t="n">
         <v>138.0472128894303</v>
@@ -5194,55 +5194,55 @@
         <v>85.59427938553355</v>
       </c>
       <c r="I13" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229525</v>
       </c>
       <c r="J13" t="n">
-        <v>111.4669458895327</v>
+        <v>111.4669458895326</v>
       </c>
       <c r="K13" t="n">
-        <v>272.0182729993778</v>
+        <v>272.0182729993777</v>
       </c>
       <c r="L13" t="n">
-        <v>506.2817303942099</v>
+        <v>506.2817303942094</v>
       </c>
       <c r="M13" t="n">
-        <v>759.600476615296</v>
+        <v>759.6004766152953</v>
       </c>
       <c r="N13" t="n">
-        <v>1012.578392023562</v>
+        <v>1012.578392023561</v>
       </c>
       <c r="O13" t="n">
-        <v>1243.185364937083</v>
+        <v>1243.185364937082</v>
       </c>
       <c r="P13" t="n">
-        <v>1434.084659278825</v>
+        <v>1434.084659278824</v>
       </c>
       <c r="Q13" t="n">
-        <v>1516.561497937171</v>
+        <v>1516.56149793717</v>
       </c>
       <c r="R13" t="n">
-        <v>1481.559539788509</v>
+        <v>1481.559539788507</v>
       </c>
       <c r="S13" t="n">
-        <v>1376.568003202726</v>
+        <v>1376.568003202724</v>
       </c>
       <c r="T13" t="n">
-        <v>1249.335763586991</v>
+        <v>1249.33576358699</v>
       </c>
       <c r="U13" t="n">
         <v>1067.203514926598</v>
       </c>
       <c r="V13" t="n">
-        <v>911.5147092314152</v>
+        <v>911.5147092314144</v>
       </c>
       <c r="W13" t="n">
-        <v>730.4048064952085</v>
+        <v>730.4048064952076</v>
       </c>
       <c r="X13" t="n">
-        <v>604.1988411369783</v>
+        <v>604.1988411369775</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.2101810756496</v>
+        <v>487.2101810756488</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1245.945173506301</v>
+        <v>956.2514965445466</v>
       </c>
       <c r="C14" t="n">
-        <v>969.0579135855025</v>
+        <v>956.2514965445466</v>
       </c>
       <c r="D14" t="n">
-        <v>701.2804475591204</v>
+        <v>688.4740305181643</v>
       </c>
       <c r="E14" t="n">
-        <v>411.5412264116212</v>
+        <v>634.5057480068488</v>
       </c>
       <c r="F14" t="n">
-        <v>102.4365344681857</v>
+        <v>325.4010560634133</v>
       </c>
       <c r="G14" t="n">
-        <v>102.4365344681857</v>
+        <v>325.4010560634133</v>
       </c>
       <c r="H14" t="n">
         <v>102.4365344681857</v>
@@ -5276,7 +5276,7 @@
         <v>52.7737138022953</v>
       </c>
       <c r="J14" t="n">
-        <v>163.8436449696106</v>
+        <v>163.8436449696105</v>
       </c>
       <c r="K14" t="n">
         <v>462.5418977570549</v>
@@ -5309,19 +5309,19 @@
         <v>2449.950004496338</v>
       </c>
       <c r="U14" t="n">
-        <v>2449.950004496338</v>
+        <v>2300.148742479721</v>
       </c>
       <c r="V14" t="n">
-        <v>2357.909644083812</v>
+        <v>2068.215967122057</v>
       </c>
       <c r="W14" t="n">
-        <v>2100.421212687806</v>
+        <v>1810.727535726052</v>
       </c>
       <c r="X14" t="n">
-        <v>1823.437570955694</v>
+        <v>1533.74389399394</v>
       </c>
       <c r="Y14" t="n">
-        <v>1534.942214277926</v>
+        <v>1245.248537316172</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>824.8641966342698</v>
       </c>
       <c r="M15" t="n">
-        <v>974.3166047880868</v>
+        <v>1372.306234597051</v>
       </c>
       <c r="N15" t="n">
         <v>1549.642707538387</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>408.7013111376642</v>
+        <v>408.7013111376641</v>
       </c>
       <c r="C16" t="n">
-        <v>344.1318403457386</v>
+        <v>344.1318403457385</v>
       </c>
       <c r="D16" t="n">
-        <v>296.1064459198955</v>
+        <v>296.1064459198954</v>
       </c>
       <c r="E16" t="n">
-        <v>249.1439304276085</v>
+        <v>249.1439304276083</v>
       </c>
       <c r="F16" t="n">
-        <v>201.7097741997798</v>
+        <v>201.7097741997796</v>
       </c>
       <c r="G16" t="n">
-        <v>138.0472128894307</v>
+        <v>138.0472128894305</v>
       </c>
       <c r="H16" t="n">
-        <v>85.59427938553404</v>
+        <v>85.59427938553355</v>
       </c>
       <c r="I16" t="n">
         <v>52.7737138022953</v>
       </c>
       <c r="J16" t="n">
-        <v>111.4669458895327</v>
+        <v>111.4669458895328</v>
       </c>
       <c r="K16" t="n">
         <v>272.0182729993779</v>
@@ -5443,7 +5443,7 @@
         <v>506.2817303942099</v>
       </c>
       <c r="M16" t="n">
-        <v>759.600476615296</v>
+        <v>759.6004766152959</v>
       </c>
       <c r="N16" t="n">
         <v>1012.578392023562</v>
@@ -5458,13 +5458,13 @@
         <v>1516.561497937171</v>
       </c>
       <c r="R16" t="n">
-        <v>1481.559539788508</v>
+        <v>1481.559539788509</v>
       </c>
       <c r="S16" t="n">
         <v>1376.568003202726</v>
       </c>
       <c r="T16" t="n">
-        <v>1249.335763586991</v>
+        <v>1249.335763586992</v>
       </c>
       <c r="U16" t="n">
         <v>1067.203514926599</v>
@@ -5476,10 +5476,10 @@
         <v>730.404806495209</v>
       </c>
       <c r="X16" t="n">
-        <v>604.1988411369787</v>
+        <v>604.1988411369786</v>
       </c>
       <c r="Y16" t="n">
-        <v>487.2101810756499</v>
+        <v>487.2101810756498</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>1176.667704114999</v>
       </c>
       <c r="D17" t="n">
-        <v>964.1461789209778</v>
+        <v>964.1461789209777</v>
       </c>
       <c r="E17" t="n">
         <v>729.6628986058399</v>
       </c>
       <c r="F17" t="n">
-        <v>475.8141474947655</v>
+        <v>475.8141474947656</v>
       </c>
       <c r="G17" t="n">
-        <v>220.4822945651619</v>
+        <v>220.4822945651618</v>
       </c>
       <c r="H17" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="I17" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="J17" t="n">
-        <v>163.8436449696105</v>
+        <v>163.8436449696106</v>
       </c>
       <c r="K17" t="n">
         <v>462.5418977570549</v>
@@ -5531,22 +5531,22 @@
         <v>2200.185737089439</v>
       </c>
       <c r="P17" t="n">
-        <v>2494.541125713731</v>
+        <v>2494.541125713732</v>
       </c>
       <c r="Q17" t="n">
-        <v>2638.685690114764</v>
+        <v>2638.685690114765</v>
       </c>
       <c r="R17" t="n">
-        <v>2638.685690114764</v>
+        <v>2638.685690114765</v>
       </c>
       <c r="S17" t="n">
-        <v>2622.462307202341</v>
+        <v>2622.462307202342</v>
       </c>
       <c r="T17" t="n">
         <v>2560.46188616106</v>
       </c>
       <c r="U17" t="n">
-        <v>2465.916564976805</v>
+        <v>2465.916564976806</v>
       </c>
       <c r="V17" t="n">
         <v>2289.239730451502</v>
@@ -5589,7 +5589,7 @@
         <v>112.5034927371433</v>
       </c>
       <c r="I18" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="J18" t="n">
         <v>136.2985107039749</v>
@@ -5604,13 +5604,13 @@
         <v>1372.306234597051</v>
       </c>
       <c r="N18" t="n">
-        <v>1549.642707538387</v>
+        <v>1738.855264315623</v>
       </c>
       <c r="O18" t="n">
-        <v>2000.445460910347</v>
+        <v>2189.658017687584</v>
       </c>
       <c r="P18" t="n">
-        <v>2349.575295777101</v>
+        <v>2538.787852554337</v>
       </c>
       <c r="Q18" t="n">
         <v>2538.787852554337</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.49386423984764</v>
+        <v>70.4938642398476</v>
       </c>
       <c r="C19" t="n">
-        <v>61.18033428028319</v>
+        <v>61.18033428028318</v>
       </c>
       <c r="D19" t="n">
-        <v>61.18033428028319</v>
+        <v>61.18033428028318</v>
       </c>
       <c r="E19" t="n">
-        <v>61.18033428028319</v>
+        <v>61.18033428028318</v>
       </c>
       <c r="F19" t="n">
-        <v>61.18033428028319</v>
+        <v>61.18033428028318</v>
       </c>
       <c r="G19" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="H19" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="I19" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="J19" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="K19" t="n">
         <v>110.3689674907995</v>
@@ -5704,19 +5704,19 @@
         <v>635.9430921267473</v>
       </c>
       <c r="U19" t="n">
-        <v>509.0667842987155</v>
+        <v>452.7163638669765</v>
       </c>
       <c r="V19" t="n">
-        <v>408.6339194358933</v>
+        <v>352.2834990041544</v>
       </c>
       <c r="W19" t="n">
-        <v>282.7799575320477</v>
+        <v>226.4295371003087</v>
       </c>
       <c r="X19" t="n">
-        <v>155.4795125744399</v>
+        <v>155.4795125744398</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.74679334547221</v>
+        <v>93.74679334547213</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1398.299023203436</v>
+        <v>1398.299023203437</v>
       </c>
       <c r="C20" t="n">
-        <v>1176.667704114998</v>
+        <v>1176.667704115</v>
       </c>
       <c r="D20" t="n">
-        <v>964.1461789209771</v>
+        <v>964.1461789209784</v>
       </c>
       <c r="E20" t="n">
-        <v>729.662898605839</v>
+        <v>729.6628986058395</v>
       </c>
       <c r="F20" t="n">
-        <v>475.8141474947645</v>
+        <v>475.8141474947651</v>
       </c>
       <c r="G20" t="n">
-        <v>220.4822945651619</v>
+        <v>220.4822945651618</v>
       </c>
       <c r="H20" t="n">
         <v>52.7737138022953</v>
@@ -5783,19 +5783,19 @@
         <v>2560.46188616106</v>
       </c>
       <c r="U20" t="n">
-        <v>2465.916564976805</v>
+        <v>2465.916564976806</v>
       </c>
       <c r="V20" t="n">
-        <v>2289.239730451502</v>
+        <v>2289.239730451503</v>
       </c>
       <c r="W20" t="n">
-        <v>2087.007239887858</v>
+        <v>2087.007239887859</v>
       </c>
       <c r="X20" t="n">
-        <v>1865.279538988106</v>
+        <v>1865.279538988107</v>
       </c>
       <c r="Y20" t="n">
-        <v>1632.040123142699</v>
+        <v>1632.040123142701</v>
       </c>
     </row>
     <row r="21">
@@ -5835,7 +5835,7 @@
         <v>405.562311238713</v>
       </c>
       <c r="L21" t="n">
-        <v>824.8641966342698</v>
+        <v>426.8745668253054</v>
       </c>
       <c r="M21" t="n">
         <v>974.3166047880868</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.49386423984771</v>
+        <v>70.4938642398476</v>
       </c>
       <c r="C22" t="n">
-        <v>61.18033428028323</v>
+        <v>61.18033428028318</v>
       </c>
       <c r="D22" t="n">
-        <v>61.18033428028323</v>
+        <v>61.18033428028318</v>
       </c>
       <c r="E22" t="n">
-        <v>61.18033428028323</v>
+        <v>61.18033428028318</v>
       </c>
       <c r="F22" t="n">
-        <v>61.18033428028323</v>
+        <v>61.18033428028318</v>
       </c>
       <c r="G22" t="n">
         <v>52.7737138022953</v>
@@ -5932,28 +5932,28 @@
         <v>757.6549866635421</v>
       </c>
       <c r="R22" t="n">
-        <v>757.6549866635421</v>
+        <v>701.3045662318031</v>
       </c>
       <c r="S22" t="n">
-        <v>707.9193909101203</v>
+        <v>651.5689704783813</v>
       </c>
       <c r="T22" t="n">
-        <v>635.9430921267473</v>
+        <v>579.5926716950082</v>
       </c>
       <c r="U22" t="n">
-        <v>452.7163638669768</v>
+        <v>452.7163638669765</v>
       </c>
       <c r="V22" t="n">
-        <v>352.2834990041547</v>
+        <v>352.2834990041544</v>
       </c>
       <c r="W22" t="n">
-        <v>226.429537100309</v>
+        <v>226.4295371003087</v>
       </c>
       <c r="X22" t="n">
-        <v>155.47951257444</v>
+        <v>155.4795125744398</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.74679334547231</v>
+        <v>93.74679334547213</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1176.667704114999</v>
       </c>
       <c r="D23" t="n">
-        <v>964.1461789209775</v>
+        <v>964.1461789209776</v>
       </c>
       <c r="E23" t="n">
-        <v>729.6628986058392</v>
+        <v>729.6628986058397</v>
       </c>
       <c r="F23" t="n">
-        <v>475.8141474947652</v>
+        <v>475.8141474947653</v>
       </c>
       <c r="G23" t="n">
         <v>220.4822945651619</v>
       </c>
       <c r="H23" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="I23" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J23" t="n">
-        <v>163.8436449696108</v>
+        <v>163.8436449696105</v>
       </c>
       <c r="K23" t="n">
-        <v>462.5418977570548</v>
+        <v>462.5418977570549</v>
       </c>
       <c r="L23" t="n">
         <v>883.0734999452907</v>
@@ -6005,16 +6005,16 @@
         <v>2200.185737089439</v>
       </c>
       <c r="P23" t="n">
-        <v>2494.541125713732</v>
+        <v>2494.541125713731</v>
       </c>
       <c r="Q23" t="n">
-        <v>2638.685690114765</v>
+        <v>2638.685690114764</v>
       </c>
       <c r="R23" t="n">
-        <v>2638.685690114765</v>
+        <v>2638.685690114764</v>
       </c>
       <c r="S23" t="n">
-        <v>2622.462307202342</v>
+        <v>2622.462307202341</v>
       </c>
       <c r="T23" t="n">
         <v>2560.46188616106</v>
@@ -6023,10 +6023,10 @@
         <v>2465.916564976806</v>
       </c>
       <c r="V23" t="n">
-        <v>2289.239730451503</v>
+        <v>2289.239730451502</v>
       </c>
       <c r="W23" t="n">
-        <v>2087.007239887859</v>
+        <v>2087.007239887858</v>
       </c>
       <c r="X23" t="n">
         <v>1865.279538988107</v>
@@ -6063,7 +6063,7 @@
         <v>112.5034927371433</v>
       </c>
       <c r="I24" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J24" t="n">
         <v>136.2985107039749</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.49386423984777</v>
+        <v>70.4938642398477</v>
       </c>
       <c r="C25" t="n">
-        <v>61.18033428028326</v>
+        <v>61.18033428028322</v>
       </c>
       <c r="D25" t="n">
-        <v>61.18033428028326</v>
+        <v>61.18033428028322</v>
       </c>
       <c r="E25" t="n">
-        <v>61.18033428028326</v>
+        <v>61.18033428028322</v>
       </c>
       <c r="F25" t="n">
-        <v>61.18033428028326</v>
+        <v>61.18033428028322</v>
       </c>
       <c r="G25" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="H25" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="I25" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J25" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="K25" t="n">
         <v>110.3689674907995</v>
@@ -6169,28 +6169,28 @@
         <v>757.6549866635421</v>
       </c>
       <c r="R25" t="n">
-        <v>757.6549866635421</v>
+        <v>701.3045662318035</v>
       </c>
       <c r="S25" t="n">
-        <v>651.5689704783821</v>
+        <v>651.5689704783817</v>
       </c>
       <c r="T25" t="n">
-        <v>579.5926716950089</v>
+        <v>579.5926716950087</v>
       </c>
       <c r="U25" t="n">
-        <v>452.716363866977</v>
+        <v>452.7163638669768</v>
       </c>
       <c r="V25" t="n">
-        <v>352.2834990041548</v>
+        <v>352.2834990041547</v>
       </c>
       <c r="W25" t="n">
-        <v>226.4295371003091</v>
+        <v>226.429537100309</v>
       </c>
       <c r="X25" t="n">
-        <v>155.4795125744401</v>
+        <v>155.47951257444</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.7467933454724</v>
+        <v>93.7467933454723</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1738.928861077506</v>
+        <v>1410.961140539725</v>
       </c>
       <c r="C26" t="n">
-        <v>1462.041601156708</v>
+        <v>1134.073880618927</v>
       </c>
       <c r="D26" t="n">
-        <v>1194.264135130325</v>
+        <v>866.2964145925446</v>
       </c>
       <c r="E26" t="n">
-        <v>904.5249139828265</v>
+        <v>595.4202220393911</v>
       </c>
       <c r="F26" t="n">
-        <v>595.420222039391</v>
+        <v>595.4202220393911</v>
       </c>
       <c r="G26" t="n">
-        <v>284.8324282774266</v>
+        <v>284.8324282774265</v>
       </c>
       <c r="H26" t="n">
-        <v>61.86790668219889</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="I26" t="n">
-        <v>61.86790668219889</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="J26" t="n">
-        <v>275.893911270855</v>
+        <v>172.9378378495141</v>
       </c>
       <c r="K26" t="n">
-        <v>574.5921640582993</v>
+        <v>471.6360906369584</v>
       </c>
       <c r="L26" t="n">
-        <v>995.1237662465351</v>
+        <v>995.1237662465352</v>
       </c>
       <c r="M26" t="n">
         <v>1469.195859806836</v>
@@ -6239,37 +6239,37 @@
         <v>2032.62418049516</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.148150233365</v>
+        <v>2508.900538684266</v>
       </c>
       <c r="P26" t="n">
-        <v>2915.459612278999</v>
+        <v>2803.255927308559</v>
       </c>
       <c r="Q26" t="n">
-        <v>3059.604176680032</v>
+        <v>3050.356565130933</v>
       </c>
       <c r="R26" t="n">
-        <v>3093.395334109945</v>
+        <v>3093.395334109942</v>
       </c>
       <c r="S26" t="n">
-        <v>3021.91601036516</v>
+        <v>3021.916010365158</v>
       </c>
       <c r="T26" t="n">
-        <v>3021.91601036516</v>
+        <v>2904.659648491515</v>
       </c>
       <c r="U26" t="n">
-        <v>3021.91601036516</v>
+        <v>2754.8583864749</v>
       </c>
       <c r="V26" t="n">
-        <v>2789.983235007496</v>
+        <v>2522.925611117235</v>
       </c>
       <c r="W26" t="n">
-        <v>2532.494803611491</v>
+        <v>2265.437179721231</v>
       </c>
       <c r="X26" t="n">
-        <v>2255.511161879379</v>
+        <v>1988.453537989118</v>
       </c>
       <c r="Y26" t="n">
-        <v>2027.925901849131</v>
+        <v>1699.95818131135</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>929.8497416382639</v>
+        <v>929.8497416382637</v>
       </c>
       <c r="C27" t="n">
-        <v>768.1460688792187</v>
+        <v>768.1460688792184</v>
       </c>
       <c r="D27" t="n">
-        <v>629.3074318694307</v>
+        <v>629.3074318694305</v>
       </c>
       <c r="E27" t="n">
-        <v>482.2794219263019</v>
+        <v>482.2794219263018</v>
       </c>
       <c r="F27" t="n">
         <v>347.5856238761762</v>
@@ -6297,31 +6297,31 @@
         <v>219.1084323648774</v>
       </c>
       <c r="H27" t="n">
-        <v>121.5976856170469</v>
+        <v>121.5976856170468</v>
       </c>
       <c r="I27" t="n">
-        <v>61.86790668219889</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="J27" t="n">
-        <v>145.3927035838785</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="K27" t="n">
-        <v>414.6565041186166</v>
+        <v>331.1317072169369</v>
       </c>
       <c r="L27" t="n">
-        <v>833.9583895141734</v>
+        <v>750.4335926124938</v>
       </c>
       <c r="M27" t="n">
-        <v>1381.400427476955</v>
+        <v>983.4107976679902</v>
       </c>
       <c r="N27" t="n">
-        <v>1956.726530227255</v>
+        <v>1558.73690041829</v>
       </c>
       <c r="O27" t="n">
-        <v>2009.539653790251</v>
+        <v>2009.53965379025</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.669488657005</v>
+        <v>2358.669488657004</v>
       </c>
       <c r="Q27" t="n">
         <v>2547.882045434241</v>
@@ -6330,7 +6330,7 @@
         <v>2503.700945987249</v>
       </c>
       <c r="S27" t="n">
-        <v>2355.569403522093</v>
+        <v>2355.569403522092</v>
       </c>
       <c r="T27" t="n">
         <v>2167.897249160525</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>417.7955040175674</v>
+        <v>417.7955040175676</v>
       </c>
       <c r="C28" t="n">
-        <v>353.2260332256419</v>
+        <v>353.226033225642</v>
       </c>
       <c r="D28" t="n">
         <v>305.2006387997988</v>
       </c>
       <c r="E28" t="n">
-        <v>258.2381233075117</v>
+        <v>258.2381233075118</v>
       </c>
       <c r="F28" t="n">
-        <v>210.8039670796829</v>
+        <v>210.803967079683</v>
       </c>
       <c r="G28" t="n">
-        <v>147.1414057693338</v>
+        <v>147.141405769334</v>
       </c>
       <c r="H28" t="n">
-        <v>94.68847226543713</v>
+        <v>94.68847226543721</v>
       </c>
       <c r="I28" t="n">
-        <v>61.86790668219889</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5611387694363</v>
+        <v>120.5611387694359</v>
       </c>
       <c r="K28" t="n">
-        <v>281.1124658792814</v>
+        <v>281.1124658792811</v>
       </c>
       <c r="L28" t="n">
-        <v>515.3759232741135</v>
+        <v>515.3759232741131</v>
       </c>
       <c r="M28" t="n">
-        <v>768.6946694951994</v>
+        <v>768.6946694951992</v>
       </c>
       <c r="N28" t="n">
         <v>1021.672584903465</v>
@@ -6421,13 +6421,13 @@
         <v>920.6089021113187</v>
       </c>
       <c r="W28" t="n">
-        <v>739.4989993751119</v>
+        <v>739.4989993751121</v>
       </c>
       <c r="X28" t="n">
-        <v>613.2930340168818</v>
+        <v>613.2930340168821</v>
       </c>
       <c r="Y28" t="n">
-        <v>496.304373955553</v>
+        <v>496.3043739555533</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1520.814215717015</v>
+        <v>1429.824169134071</v>
       </c>
       <c r="C29" t="n">
-        <v>1243.926955796216</v>
+        <v>1152.936909213272</v>
       </c>
       <c r="D29" t="n">
-        <v>1243.926955796216</v>
+        <v>885.15944318689</v>
       </c>
       <c r="E29" t="n">
-        <v>954.1877346487174</v>
+        <v>595.4202220393911</v>
       </c>
       <c r="F29" t="n">
-        <v>645.083042705282</v>
+        <v>595.4202220393911</v>
       </c>
       <c r="G29" t="n">
-        <v>334.4952489433174</v>
+        <v>284.8324282774265</v>
       </c>
       <c r="H29" t="n">
-        <v>111.5307273480892</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="I29" t="n">
-        <v>61.86790668219889</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="J29" t="n">
-        <v>172.9378378495142</v>
+        <v>172.9378378495141</v>
       </c>
       <c r="K29" t="n">
-        <v>471.6360906369585</v>
+        <v>471.6360906369583</v>
       </c>
       <c r="L29" t="n">
-        <v>995.1237662465353</v>
+        <v>995.123766246535</v>
       </c>
       <c r="M29" t="n">
-        <v>1572.151933228177</v>
+        <v>1469.195859806836</v>
       </c>
       <c r="N29" t="n">
-        <v>2135.580253916501</v>
+        <v>2032.624180495159</v>
       </c>
       <c r="O29" t="n">
-        <v>2621.104223654706</v>
+        <v>2518.148150233365</v>
       </c>
       <c r="P29" t="n">
-        <v>2915.459612278999</v>
+        <v>2846.294696287568</v>
       </c>
       <c r="Q29" t="n">
-        <v>3093.395334109945</v>
+        <v>3093.395334109942</v>
       </c>
       <c r="R29" t="n">
-        <v>3093.395334109945</v>
+        <v>3093.395334109942</v>
       </c>
       <c r="S29" t="n">
-        <v>3021.91601036516</v>
+        <v>3021.916010365158</v>
       </c>
       <c r="T29" t="n">
-        <v>2904.659648491518</v>
+        <v>2904.659648491515</v>
       </c>
       <c r="U29" t="n">
-        <v>2754.858386474902</v>
+        <v>2754.8583864749</v>
       </c>
       <c r="V29" t="n">
-        <v>2522.925611117238</v>
+        <v>2522.925611117235</v>
       </c>
       <c r="W29" t="n">
-        <v>2265.437179721233</v>
+        <v>2265.437179721231</v>
       </c>
       <c r="X29" t="n">
-        <v>1988.453537989121</v>
+        <v>1988.453537989118</v>
       </c>
       <c r="Y29" t="n">
-        <v>1809.81125648864</v>
+        <v>1718.821209905696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>929.8497416382639</v>
+        <v>929.8497416382637</v>
       </c>
       <c r="C30" t="n">
-        <v>768.1460688792187</v>
+        <v>768.1460688792184</v>
       </c>
       <c r="D30" t="n">
-        <v>629.3074318694307</v>
+        <v>629.3074318694305</v>
       </c>
       <c r="E30" t="n">
-        <v>482.2794219263019</v>
+        <v>482.2794219263018</v>
       </c>
       <c r="F30" t="n">
         <v>347.5856238761762</v>
@@ -6534,31 +6534,31 @@
         <v>219.1084323648774</v>
       </c>
       <c r="H30" t="n">
-        <v>121.5976856170469</v>
+        <v>121.5976856170468</v>
       </c>
       <c r="I30" t="n">
-        <v>61.86790668219889</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="J30" t="n">
-        <v>61.86790668219889</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="K30" t="n">
-        <v>331.131707216937</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="L30" t="n">
-        <v>750.4335926124938</v>
+        <v>481.1697920777557</v>
       </c>
       <c r="M30" t="n">
-        <v>1297.875630575275</v>
+        <v>1028.611830040537</v>
       </c>
       <c r="N30" t="n">
-        <v>1873.201733325575</v>
+        <v>1558.73690041829</v>
       </c>
       <c r="O30" t="n">
-        <v>2324.004486697536</v>
+        <v>2009.53965379025</v>
       </c>
       <c r="P30" t="n">
-        <v>2547.882045434241</v>
+        <v>2358.669488657004</v>
       </c>
       <c r="Q30" t="n">
         <v>2547.882045434241</v>
@@ -6567,7 +6567,7 @@
         <v>2503.700945987249</v>
       </c>
       <c r="S30" t="n">
-        <v>2355.569403522093</v>
+        <v>2355.569403522092</v>
       </c>
       <c r="T30" t="n">
         <v>2167.897249160525</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>417.7955040175674</v>
+        <v>417.7955040175673</v>
       </c>
       <c r="C31" t="n">
-        <v>353.2260332256418</v>
+        <v>353.2260332256417</v>
       </c>
       <c r="D31" t="n">
-        <v>305.2006387997987</v>
+        <v>305.2006387997986</v>
       </c>
       <c r="E31" t="n">
-        <v>258.2381233075117</v>
+        <v>258.2381233075116</v>
       </c>
       <c r="F31" t="n">
-        <v>210.8039670796829</v>
+        <v>210.8039670796828</v>
       </c>
       <c r="G31" t="n">
-        <v>147.1414057693339</v>
+        <v>147.1414057693338</v>
       </c>
       <c r="H31" t="n">
-        <v>94.68847226543714</v>
+        <v>94.6884722654371</v>
       </c>
       <c r="I31" t="n">
-        <v>61.86790668219889</v>
+        <v>61.86790668219885</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5611387694363</v>
+        <v>120.5611387694357</v>
       </c>
       <c r="K31" t="n">
-        <v>281.1124658792814</v>
+        <v>281.1124658792809</v>
       </c>
       <c r="L31" t="n">
-        <v>515.3759232741135</v>
+        <v>515.3759232741128</v>
       </c>
       <c r="M31" t="n">
-        <v>768.6946694951995</v>
+        <v>768.6946694951988</v>
       </c>
       <c r="N31" t="n">
         <v>1021.672584903465</v>
@@ -6646,25 +6646,25 @@
         <v>1490.653732668412</v>
       </c>
       <c r="S31" t="n">
-        <v>1385.662196082629</v>
+        <v>1385.662196082628</v>
       </c>
       <c r="T31" t="n">
-        <v>1258.429956466895</v>
+        <v>1258.429956466894</v>
       </c>
       <c r="U31" t="n">
-        <v>1076.297707806502</v>
+        <v>1076.297707806501</v>
       </c>
       <c r="V31" t="n">
-        <v>920.6089021113187</v>
+        <v>920.6089021113182</v>
       </c>
       <c r="W31" t="n">
-        <v>739.4989993751119</v>
+        <v>739.4989993751115</v>
       </c>
       <c r="X31" t="n">
-        <v>613.2930340168818</v>
+        <v>613.2930340168817</v>
       </c>
       <c r="Y31" t="n">
-        <v>496.304373955553</v>
+        <v>496.3043739555529</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1433.455778535539</v>
+        <v>1433.45577853554</v>
       </c>
       <c r="C32" t="n">
-        <v>1206.23133928063</v>
+        <v>1206.231339280632</v>
       </c>
       <c r="D32" t="n">
-        <v>988.1166939201385</v>
+        <v>988.1166939201398</v>
       </c>
       <c r="E32" t="n">
-        <v>748.0402934385296</v>
+        <v>748.040293438531</v>
       </c>
       <c r="F32" t="n">
-        <v>488.5984221609845</v>
+        <v>488.5984221609858</v>
       </c>
       <c r="G32" t="n">
         <v>227.67344906491</v>
       </c>
       <c r="H32" t="n">
-        <v>54.37174813557266</v>
+        <v>54.37174813557269</v>
       </c>
       <c r="I32" t="n">
-        <v>54.37174813557266</v>
+        <v>54.37174813557269</v>
       </c>
       <c r="J32" t="n">
         <v>165.4416793028879</v>
@@ -6713,37 +6713,37 @@
         <v>1819.215875105852</v>
       </c>
       <c r="O32" t="n">
-        <v>2280.087453753307</v>
+        <v>2280.087453753309</v>
       </c>
       <c r="P32" t="n">
-        <v>2574.4428423776</v>
+        <v>2574.442842377601</v>
       </c>
       <c r="Q32" t="n">
-        <v>2718.587406778633</v>
+        <v>2718.587406778634</v>
       </c>
       <c r="R32" t="n">
-        <v>2718.587406778633</v>
+        <v>2718.587406778634</v>
       </c>
       <c r="S32" t="n">
-        <v>2696.770903699739</v>
+        <v>2696.770903699741</v>
       </c>
       <c r="T32" t="n">
-        <v>2629.177362491987</v>
+        <v>2629.177362491988</v>
       </c>
       <c r="U32" t="n">
-        <v>2529.038921141262</v>
+        <v>2529.038921141263</v>
       </c>
       <c r="V32" t="n">
-        <v>2346.768966449487</v>
+        <v>2346.768966449489</v>
       </c>
       <c r="W32" t="n">
-        <v>2138.943355719373</v>
+        <v>2138.943355719374</v>
       </c>
       <c r="X32" t="n">
-        <v>1911.622534653151</v>
+        <v>1911.622534653152</v>
       </c>
       <c r="Y32" t="n">
-        <v>1672.789998641273</v>
+        <v>1672.789998641274</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>211.6122738182512</v>
       </c>
       <c r="H33" t="n">
-        <v>114.1015270704206</v>
+        <v>114.1015270704207</v>
       </c>
       <c r="I33" t="n">
-        <v>54.37174813557266</v>
+        <v>54.37174813557269</v>
       </c>
       <c r="J33" t="n">
-        <v>137.8965450372523</v>
+        <v>54.37174813557269</v>
       </c>
       <c r="K33" t="n">
-        <v>407.1603455719904</v>
+        <v>323.6355486703108</v>
       </c>
       <c r="L33" t="n">
-        <v>826.4622309675472</v>
+        <v>742.9374340658676</v>
       </c>
       <c r="M33" t="n">
-        <v>1325.044473988118</v>
+        <v>1290.379472028649</v>
       </c>
       <c r="N33" t="n">
-        <v>1900.370576738418</v>
+        <v>1865.705574778949</v>
       </c>
       <c r="O33" t="n">
-        <v>2351.173330110379</v>
+        <v>2191.256052020861</v>
       </c>
       <c r="P33" t="n">
-        <v>2351.173330110379</v>
+        <v>2540.385886887615</v>
       </c>
       <c r="Q33" t="n">
         <v>2540.385886887615</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.06825174407295</v>
+        <v>83.69735767309773</v>
       </c>
       <c r="C34" t="n">
-        <v>71.16160161803774</v>
+        <v>68.79070754706251</v>
       </c>
       <c r="D34" t="n">
-        <v>71.16160161803774</v>
+        <v>68.79070754706251</v>
       </c>
       <c r="E34" t="n">
-        <v>71.16160161803774</v>
+        <v>71.16160161803776</v>
       </c>
       <c r="F34" t="n">
-        <v>71.16160161803774</v>
+        <v>71.16160161803776</v>
       </c>
       <c r="G34" t="n">
-        <v>57.16186097357906</v>
+        <v>57.16186097357909</v>
       </c>
       <c r="H34" t="n">
-        <v>54.37174813557266</v>
+        <v>54.37174813557269</v>
       </c>
       <c r="I34" t="n">
-        <v>54.37174813557266</v>
+        <v>54.37174813557269</v>
       </c>
       <c r="J34" t="n">
-        <v>54.37174813557266</v>
+        <v>54.37174813557269</v>
       </c>
       <c r="K34" t="n">
         <v>111.9670018240769</v>
@@ -6865,43 +6865,43 @@
         <v>243.274385797568</v>
       </c>
       <c r="M34" t="n">
-        <v>393.6370585973131</v>
+        <v>393.6370585973132</v>
       </c>
       <c r="N34" t="n">
-        <v>543.6589005842382</v>
+        <v>543.6589005842383</v>
       </c>
       <c r="O34" t="n">
-        <v>671.3098000764184</v>
+        <v>671.3098000764185</v>
       </c>
       <c r="P34" t="n">
-        <v>759.2530209968194</v>
+        <v>759.2530209968195</v>
       </c>
       <c r="Q34" t="n">
-        <v>761.6239150677947</v>
+        <v>759.2530209968195</v>
       </c>
       <c r="R34" t="n">
-        <v>761.6239150677947</v>
+        <v>759.2530209968195</v>
       </c>
       <c r="S34" t="n">
-        <v>706.2951991479022</v>
+        <v>703.924305076927</v>
       </c>
       <c r="T34" t="n">
-        <v>628.7257801980584</v>
+        <v>626.3548861270831</v>
       </c>
       <c r="U34" t="n">
-        <v>496.2563522035558</v>
+        <v>493.8854581325805</v>
       </c>
       <c r="V34" t="n">
-        <v>390.2303671742629</v>
+        <v>387.8594731032877</v>
       </c>
       <c r="W34" t="n">
-        <v>258.7832851039465</v>
+        <v>256.4123910329712</v>
       </c>
       <c r="X34" t="n">
-        <v>182.2401404116067</v>
+        <v>179.8692463406315</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.9143010161683</v>
+        <v>112.5434069451931</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1398.299023203436</v>
+        <v>1398.299023203437</v>
       </c>
       <c r="C35" t="n">
-        <v>1176.667704114999</v>
+        <v>1176.667704115</v>
       </c>
       <c r="D35" t="n">
-        <v>964.1461789209777</v>
+        <v>964.1461789209784</v>
       </c>
       <c r="E35" t="n">
-        <v>729.6628986058397</v>
+        <v>729.6628986058405</v>
       </c>
       <c r="F35" t="n">
-        <v>475.8141474947652</v>
+        <v>475.8141474947661</v>
       </c>
       <c r="G35" t="n">
         <v>220.4822945651619</v>
       </c>
       <c r="H35" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="I35" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="J35" t="n">
-        <v>163.8436449696105</v>
+        <v>163.8436449696111</v>
       </c>
       <c r="K35" t="n">
-        <v>462.5418977570549</v>
+        <v>462.5418977570554</v>
       </c>
       <c r="L35" t="n">
-        <v>883.0734999452907</v>
+        <v>883.0734999452912</v>
       </c>
       <c r="M35" t="n">
-        <v>1357.145593505591</v>
+        <v>1357.145593505592</v>
       </c>
       <c r="N35" t="n">
-        <v>1817.617840772574</v>
+        <v>1817.617840772575</v>
       </c>
       <c r="O35" t="n">
         <v>2200.185737089439</v>
@@ -6959,22 +6959,22 @@
         <v>2638.685690114765</v>
       </c>
       <c r="R35" t="n">
-        <v>2638.685690114764</v>
+        <v>2638.685690114765</v>
       </c>
       <c r="S35" t="n">
         <v>2622.462307202342</v>
       </c>
       <c r="T35" t="n">
-        <v>2560.46188616106</v>
+        <v>2560.461886161061</v>
       </c>
       <c r="U35" t="n">
         <v>2465.916564976806</v>
       </c>
       <c r="V35" t="n">
-        <v>2289.239730451502</v>
+        <v>2289.239730451503</v>
       </c>
       <c r="W35" t="n">
-        <v>2087.007239887858</v>
+        <v>2087.007239887859</v>
       </c>
       <c r="X35" t="n">
         <v>1865.279538988107</v>
@@ -7011,22 +7011,22 @@
         <v>112.5034927371433</v>
       </c>
       <c r="I36" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="J36" t="n">
-        <v>136.2985107039749</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="K36" t="n">
-        <v>405.562311238713</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="L36" t="n">
-        <v>824.8641966342698</v>
+        <v>426.8745668253054</v>
       </c>
       <c r="M36" t="n">
-        <v>1372.306234597051</v>
+        <v>974.3166047880868</v>
       </c>
       <c r="N36" t="n">
-        <v>1947.632337347351</v>
+        <v>1549.642707538387</v>
       </c>
       <c r="O36" t="n">
         <v>2000.445460910347</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.8442846715858</v>
+        <v>70.49386423984771</v>
       </c>
       <c r="C37" t="n">
-        <v>117.5307547120213</v>
+        <v>61.18033428028323</v>
       </c>
       <c r="D37" t="n">
-        <v>61.18033428028328</v>
+        <v>61.18033428028323</v>
       </c>
       <c r="E37" t="n">
-        <v>61.18033428028328</v>
+        <v>61.18033428028323</v>
       </c>
       <c r="F37" t="n">
-        <v>61.18033428028328</v>
+        <v>61.18033428028323</v>
       </c>
       <c r="G37" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="H37" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="I37" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="J37" t="n">
-        <v>52.77371380229529</v>
+        <v>52.7737138022953</v>
       </c>
       <c r="K37" t="n">
         <v>110.3689674907995</v>
@@ -7120,25 +7120,25 @@
         <v>757.6549866635421</v>
       </c>
       <c r="S37" t="n">
-        <v>707.9193909101202</v>
+        <v>707.9193909101203</v>
       </c>
       <c r="T37" t="n">
-        <v>635.943092126747</v>
+        <v>635.9430921267473</v>
       </c>
       <c r="U37" t="n">
-        <v>509.0667842987152</v>
+        <v>509.0667842987154</v>
       </c>
       <c r="V37" t="n">
-        <v>408.633919435893</v>
+        <v>408.6339194358933</v>
       </c>
       <c r="W37" t="n">
-        <v>282.7799575320473</v>
+        <v>282.7799575320477</v>
       </c>
       <c r="X37" t="n">
-        <v>211.8299330061782</v>
+        <v>211.8299330061786</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.0972137772105</v>
+        <v>93.74679334547231</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>1398.299023203436</v>
       </c>
       <c r="C38" t="n">
-        <v>1176.667704114998</v>
+        <v>1176.667704114999</v>
       </c>
       <c r="D38" t="n">
-        <v>964.146178920977</v>
+        <v>964.1461789209776</v>
       </c>
       <c r="E38" t="n">
-        <v>729.6628986058391</v>
+        <v>729.6628986058397</v>
       </c>
       <c r="F38" t="n">
-        <v>475.8141474947647</v>
+        <v>475.8141474947653</v>
       </c>
       <c r="G38" t="n">
         <v>220.4822945651619</v>
       </c>
       <c r="H38" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="I38" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J38" t="n">
-        <v>163.8436449696106</v>
+        <v>163.8436449696105</v>
       </c>
       <c r="K38" t="n">
         <v>462.5418977570549</v>
       </c>
       <c r="L38" t="n">
-        <v>883.0734999452907</v>
+        <v>883.0734999452905</v>
       </c>
       <c r="M38" t="n">
         <v>1357.145593505591</v>
@@ -7190,22 +7190,22 @@
         <v>2200.185737089439</v>
       </c>
       <c r="P38" t="n">
-        <v>2494.541125713732</v>
+        <v>2494.541125713731</v>
       </c>
       <c r="Q38" t="n">
-        <v>2638.685690114765</v>
+        <v>2638.685690114764</v>
       </c>
       <c r="R38" t="n">
-        <v>2638.685690114765</v>
+        <v>2638.685690114764</v>
       </c>
       <c r="S38" t="n">
-        <v>2622.462307202342</v>
+        <v>2622.462307202341</v>
       </c>
       <c r="T38" t="n">
         <v>2560.46188616106</v>
       </c>
       <c r="U38" t="n">
-        <v>2465.916564976805</v>
+        <v>2465.916564976806</v>
       </c>
       <c r="V38" t="n">
         <v>2289.239730451502</v>
@@ -7214,7 +7214,7 @@
         <v>2087.007239887858</v>
       </c>
       <c r="X38" t="n">
-        <v>1865.279538988106</v>
+        <v>1865.279538988107</v>
       </c>
       <c r="Y38" t="n">
         <v>1632.0401231427</v>
@@ -7248,28 +7248,28 @@
         <v>112.5034927371433</v>
       </c>
       <c r="I39" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J39" t="n">
         <v>136.2985107039749</v>
       </c>
       <c r="K39" t="n">
-        <v>196.7852382069851</v>
+        <v>405.562311238713</v>
       </c>
       <c r="L39" t="n">
-        <v>616.087123602542</v>
+        <v>824.8641966342698</v>
       </c>
       <c r="M39" t="n">
-        <v>1163.529161565323</v>
+        <v>1372.306234597051</v>
       </c>
       <c r="N39" t="n">
-        <v>1738.855264315623</v>
+        <v>1549.642707538387</v>
       </c>
       <c r="O39" t="n">
-        <v>2189.658017687584</v>
+        <v>2000.445460910347</v>
       </c>
       <c r="P39" t="n">
-        <v>2538.787852554337</v>
+        <v>2349.575295777101</v>
       </c>
       <c r="Q39" t="n">
         <v>2538.787852554337</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.844284671586</v>
+        <v>70.4938642398477</v>
       </c>
       <c r="C40" t="n">
-        <v>117.5307547120214</v>
+        <v>61.18033428028322</v>
       </c>
       <c r="D40" t="n">
-        <v>117.5307547120214</v>
+        <v>61.18033428028322</v>
       </c>
       <c r="E40" t="n">
-        <v>117.5307547120214</v>
+        <v>61.18033428028322</v>
       </c>
       <c r="F40" t="n">
-        <v>117.5307547120214</v>
+        <v>61.18033428028322</v>
       </c>
       <c r="G40" t="n">
-        <v>109.1241342340335</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="H40" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="I40" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J40" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="K40" t="n">
         <v>110.3689674907995</v>
@@ -7351,31 +7351,31 @@
         <v>757.6549866635421</v>
       </c>
       <c r="Q40" t="n">
-        <v>757.6549866635421</v>
+        <v>736.7599404815251</v>
       </c>
       <c r="R40" t="n">
-        <v>757.6549866635421</v>
+        <v>736.7599404815251</v>
       </c>
       <c r="S40" t="n">
-        <v>707.9193909101202</v>
+        <v>687.0243447281033</v>
       </c>
       <c r="T40" t="n">
-        <v>635.943092126747</v>
+        <v>579.5926716950087</v>
       </c>
       <c r="U40" t="n">
-        <v>509.0667842987152</v>
+        <v>452.7163638669768</v>
       </c>
       <c r="V40" t="n">
-        <v>408.633919435893</v>
+        <v>352.2834990041547</v>
       </c>
       <c r="W40" t="n">
-        <v>282.7799575320473</v>
+        <v>226.429537100309</v>
       </c>
       <c r="X40" t="n">
-        <v>211.8299330061783</v>
+        <v>155.47951257444</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.0972137772106</v>
+        <v>93.7467933454723</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1431.857744202261</v>
+        <v>1353.55406187167</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.633304947353</v>
+        <v>1126.329622616761</v>
       </c>
       <c r="D41" t="n">
-        <v>986.5186595868608</v>
+        <v>908.2149772562691</v>
       </c>
       <c r="E41" t="n">
-        <v>746.4422591052521</v>
+        <v>668.1385767746605</v>
       </c>
       <c r="F41" t="n">
-        <v>487.000387827707</v>
+        <v>408.6967054971153</v>
       </c>
       <c r="G41" t="n">
-        <v>226.0754147316326</v>
+        <v>147.7717324010402</v>
       </c>
       <c r="H41" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="I41" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J41" t="n">
-        <v>163.8436449696106</v>
+        <v>163.8436449696105</v>
       </c>
       <c r="K41" t="n">
-        <v>462.5418977570549</v>
+        <v>462.5418977570545</v>
       </c>
       <c r="L41" t="n">
-        <v>883.0734999452907</v>
+        <v>883.0734999452902</v>
       </c>
       <c r="M41" t="n">
         <v>1357.145593505591</v>
@@ -7427,19 +7427,19 @@
         <v>2200.185737089439</v>
       </c>
       <c r="P41" t="n">
-        <v>2494.541125713732</v>
+        <v>2494.541125713731</v>
       </c>
       <c r="Q41" t="n">
-        <v>2638.685690114765</v>
+        <v>2638.685690114764</v>
       </c>
       <c r="R41" t="n">
-        <v>2638.685690114765</v>
+        <v>2638.685690114764</v>
       </c>
       <c r="S41" t="n">
         <v>2616.869187035871</v>
       </c>
       <c r="T41" t="n">
-        <v>2549.275645828119</v>
+        <v>2549.275645828118</v>
       </c>
       <c r="U41" t="n">
         <v>2449.137204477393</v>
@@ -7448,13 +7448,13 @@
         <v>2266.867249785619</v>
       </c>
       <c r="W41" t="n">
-        <v>2137.345321386095</v>
+        <v>2059.041639055504</v>
       </c>
       <c r="X41" t="n">
-        <v>1910.024500319873</v>
+        <v>1831.720817989282</v>
       </c>
       <c r="Y41" t="n">
-        <v>1671.191964307996</v>
+        <v>1592.888281977404</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>112.5034927371433</v>
       </c>
       <c r="I42" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J42" t="n">
         <v>136.2985107039749</v>
       </c>
       <c r="K42" t="n">
-        <v>405.562311238713</v>
+        <v>136.2985107039749</v>
       </c>
       <c r="L42" t="n">
-        <v>824.8641966342698</v>
+        <v>555.6003960995317</v>
       </c>
       <c r="M42" t="n">
-        <v>974.3166047880868</v>
+        <v>1103.042434062313</v>
       </c>
       <c r="N42" t="n">
-        <v>1549.642707538387</v>
+        <v>1678.368536812613</v>
       </c>
       <c r="O42" t="n">
         <v>2000.445460910347</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.47021741079558</v>
+        <v>82.09932333982034</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56356728476037</v>
+        <v>67.19267321378513</v>
       </c>
       <c r="D43" t="n">
-        <v>69.56356728476037</v>
+        <v>67.37925326901619</v>
       </c>
       <c r="E43" t="n">
-        <v>69.56356728476037</v>
+        <v>67.37925326901619</v>
       </c>
       <c r="F43" t="n">
         <v>69.56356728476037</v>
       </c>
       <c r="G43" t="n">
-        <v>55.5638266403017</v>
+        <v>55.56382664030169</v>
       </c>
       <c r="H43" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="I43" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J43" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="K43" t="n">
         <v>110.3689674907995</v>
       </c>
       <c r="L43" t="n">
-        <v>244.0472455352659</v>
+        <v>241.6763514642907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.409918335011</v>
+        <v>392.0390242640358</v>
       </c>
       <c r="N43" t="n">
-        <v>544.4317603219361</v>
+        <v>542.0608662509609</v>
       </c>
       <c r="O43" t="n">
-        <v>672.0826598141163</v>
+        <v>669.7117657431411</v>
       </c>
       <c r="P43" t="n">
-        <v>760.0258807345173</v>
+        <v>757.6549866635421</v>
       </c>
       <c r="Q43" t="n">
-        <v>760.0258807345173</v>
+        <v>757.6549866635421</v>
       </c>
       <c r="R43" t="n">
-        <v>760.0258807345173</v>
+        <v>757.6549866635421</v>
       </c>
       <c r="S43" t="n">
-        <v>704.6971648146248</v>
+        <v>702.3262707436496</v>
       </c>
       <c r="T43" t="n">
-        <v>627.127745864781</v>
+        <v>624.7568517938057</v>
       </c>
       <c r="U43" t="n">
-        <v>494.6583178702784</v>
+        <v>492.2874237993032</v>
       </c>
       <c r="V43" t="n">
-        <v>388.6323328409855</v>
+        <v>386.2614387700103</v>
       </c>
       <c r="W43" t="n">
-        <v>257.1852507706691</v>
+        <v>254.8143566996939</v>
       </c>
       <c r="X43" t="n">
-        <v>180.6421060783293</v>
+        <v>178.2712120073541</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.3162666828909</v>
+        <v>110.9453726119157</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1431.857744202261</v>
+        <v>1353.55406187167</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.633304947353</v>
+        <v>1126.329622616762</v>
       </c>
       <c r="D44" t="n">
-        <v>986.5186595868606</v>
+        <v>908.21497725627</v>
       </c>
       <c r="E44" t="n">
-        <v>746.442259105252</v>
+        <v>668.1385767746613</v>
       </c>
       <c r="F44" t="n">
-        <v>487.0003878277068</v>
+        <v>408.696705497116</v>
       </c>
       <c r="G44" t="n">
-        <v>226.0754147316326</v>
+        <v>147.7717324010418</v>
       </c>
       <c r="H44" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="I44" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J44" t="n">
-        <v>163.8436449696108</v>
+        <v>163.8436449696105</v>
       </c>
       <c r="K44" t="n">
-        <v>462.5418977570548</v>
+        <v>462.5418977570549</v>
       </c>
       <c r="L44" t="n">
-        <v>883.0734999452907</v>
+        <v>883.0734999452902</v>
       </c>
       <c r="M44" t="n">
         <v>1357.145593505591</v>
@@ -7664,13 +7664,13 @@
         <v>2200.185737089439</v>
       </c>
       <c r="P44" t="n">
-        <v>2494.541125713732</v>
+        <v>2494.541125713731</v>
       </c>
       <c r="Q44" t="n">
-        <v>2638.685690114765</v>
+        <v>2638.685690114764</v>
       </c>
       <c r="R44" t="n">
-        <v>2638.685690114765</v>
+        <v>2638.685690114764</v>
       </c>
       <c r="S44" t="n">
         <v>2616.869187035871</v>
@@ -7691,7 +7691,7 @@
         <v>1831.720817989283</v>
       </c>
       <c r="Y44" t="n">
-        <v>1671.191964307995</v>
+        <v>1592.888281977405</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>112.5034927371433</v>
       </c>
       <c r="I45" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J45" t="n">
         <v>136.2985107039749</v>
@@ -7734,10 +7734,10 @@
         <v>824.8641966342698</v>
       </c>
       <c r="M45" t="n">
-        <v>1372.306234597051</v>
+        <v>974.3166047880868</v>
       </c>
       <c r="N45" t="n">
-        <v>1947.632337347351</v>
+        <v>1549.642707538387</v>
       </c>
       <c r="O45" t="n">
         <v>2000.445460910347</v>
@@ -7795,28 +7795,28 @@
         <v>69.56356728476037</v>
       </c>
       <c r="G46" t="n">
-        <v>55.5638266403017</v>
+        <v>55.56382664030169</v>
       </c>
       <c r="H46" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="I46" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="J46" t="n">
-        <v>52.7737138022953</v>
+        <v>52.77371380229529</v>
       </c>
       <c r="K46" t="n">
         <v>110.3689674907995</v>
       </c>
       <c r="L46" t="n">
-        <v>244.0472455352659</v>
+        <v>241.6763514642907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.409918335011</v>
+        <v>392.0390242640358</v>
       </c>
       <c r="N46" t="n">
-        <v>544.4317603219361</v>
+        <v>542.0608662509609</v>
       </c>
       <c r="O46" t="n">
         <v>672.0826598141163</v>
@@ -7982,10 +7982,10 @@
         <v>188.8326827569781</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>201.569890946046</v>
       </c>
       <c r="M2" t="n">
-        <v>197.1659932800904</v>
+        <v>196.7615618141134</v>
       </c>
       <c r="N2" t="n">
         <v>186.3981141722301</v>
@@ -7994,7 +7994,7 @@
         <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
-        <v>197.4820563681108</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
         <v>180.6233730229902</v>
@@ -8055,28 +8055,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>113.0652504495981</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>122.005847949598</v>
       </c>
       <c r="L3" t="n">
-        <v>122.5851123540791</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>116.3203883846627</v>
       </c>
       <c r="O3" t="n">
-        <v>125.4646959280654</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P3" t="n">
-        <v>118.8638848070747</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>123.7448702278239</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8137,19 +8137,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>114.4285195805143</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>119.6034782614375</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M4" t="n">
-        <v>112.8771994574291</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N4" t="n">
         <v>113.7541836609333</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P4" t="n">
         <v>121.9136820728638</v>
@@ -8216,25 +8216,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>188.8326827569781</v>
+        <v>188.4282512910011</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>201.569890946046</v>
       </c>
       <c r="M5" t="n">
-        <v>187.1563144971591</v>
+        <v>197.1659932800904</v>
       </c>
       <c r="N5" t="n">
-        <v>186.3981141722301</v>
+        <v>196.4077929551615</v>
       </c>
       <c r="O5" t="n">
-        <v>196.9644755630518</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
-        <v>197.8864878340879</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>190.2286203399446</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8295,7 +8295,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>122.005847949598</v>
+        <v>121.601416483621</v>
       </c>
       <c r="L6" t="n">
         <v>122.5851123540791</v>
@@ -8304,16 +8304,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>116.7248198506397</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>118.8638848070747</v>
       </c>
       <c r="Q6" t="n">
-        <v>123.3404387618468</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8374,19 +8374,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L7" t="n">
-        <v>119.1990467954604</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4959374921223</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P7" t="n">
         <v>121.9136820728638</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>151.2349730829168</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>282.534664589806</v>
+        <v>282.5346645898051</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>290.8679751129174</v>
       </c>
       <c r="N8" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>290.6664573958797</v>
+        <v>290.6664573958788</v>
       </c>
       <c r="P8" t="n">
-        <v>291.5884696669157</v>
+        <v>214.6722972452623</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,28 +8529,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>215.7078297824259</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>154.1424187756451</v>
+        <v>219.1955631773982</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>210.4268016834666</v>
       </c>
       <c r="O9" t="n">
-        <v>219.5711092268703</v>
+        <v>219.5711092268694</v>
       </c>
       <c r="P9" t="n">
-        <v>212.5658666399025</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>213.2564819347616</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8617,16 +8617,16 @@
         <v>211.2171120040207</v>
       </c>
       <c r="M10" t="n">
-        <v>121.1921168669687</v>
+        <v>216.5888600731874</v>
       </c>
       <c r="N10" t="n">
-        <v>207.4561654937612</v>
+        <v>175.6639513058598</v>
       </c>
       <c r="O10" t="n">
         <v>211.9541662756472</v>
       </c>
       <c r="P10" t="n">
-        <v>175.5085323082534</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8766,13 +8766,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>79.54986422366318</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>164.451203533603</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8781,7 +8781,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>110.0112879799875</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.825599723696</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>203.4068557952378</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>221.1353595668576</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>221.1353595668576</v>
+        <v>412.259154291339</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>81.97667933212271</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,7 +9401,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425142</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9483,10 +9483,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>80.0827218147348</v>
       </c>
       <c r="M21" t="n">
-        <v>203.4068557952378</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>79.54986422366319</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9960,13 +9960,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>287.7753375141058</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>110.0112879799864</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>79.54986422366319</v>
+        <v>79.54986422366321</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>71.82117121257636</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,16 +10200,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>577.4874781895014</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>287.4841485955057</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.97667933212271</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>79.54986422366319</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10434,19 +10434,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>556.0632546505451</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>385.5035644233361</v>
       </c>
       <c r="P33" t="n">
-        <v>61.34520037661135</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>81.97667933212271</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,13 +10662,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>79.54986422366319</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>71.82117121257636</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>436.4348404373789</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10677,7 +10677,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>110.0112879799864</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>132.9188757610715</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>221.1353595668576</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.97667933212271</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425137</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11139,19 +11139,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>71.82117121257636</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>203.4068557952378</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>381.9949248837622</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11382,13 +11382,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>203.4068557952378</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>110.0112879799864</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>286.841828936024</v>
       </c>
       <c r="F11" t="n">
-        <v>306.0136450240012</v>
+        <v>220.6897876353904</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>307.4819158243449</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.76453050733632</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>116.0837982549063</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>148.3032493964494</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>173.8483092130629</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>274.1183873215905</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>233.4132292498216</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>307.4819158243449</v>
       </c>
       <c r="H14" t="n">
-        <v>220.7348763792754</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>148.3032493964494</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>138.4934907956864</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24449,10 +24449,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>18.67439830840233</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>306.0136450240012</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>49.16619245923145</v>
+        <v>49.16619245923147</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,10 +24494,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>116.0837982549063</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>148.3032493964494</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>60.30099568104578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24683,13 +24683,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>265.0996913661185</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>306.0136450240012</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>49.16619245923145</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>108.7545444255135</v>
+        <v>18.6743983084022</v>
       </c>
     </row>
     <row r="30">
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>77.5206455072865</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>77.52064550728539</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>77.52064550728466</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>77.52064550728409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>795640.4459203176</v>
+        <v>795640.4459203174</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791402.6152478223</v>
+        <v>791402.615247822</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791402.6152478223</v>
+        <v>791402.6152478221</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>853033.9385675892</v>
+        <v>853033.9385675893</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>853033.9385675892</v>
+        <v>853033.9385675893</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>824763.0812570261</v>
+        <v>824763.0812570259</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>824763.0812570261</v>
+        <v>824763.0812570257</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>847171.8273543284</v>
+        <v>847171.8273543285</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>613976.1378956373</v>
+        <v>613976.1378956374</v>
       </c>
       <c r="C2" t="n">
         <v>613976.1378956374</v>
@@ -26320,40 +26320,40 @@
         <v>614099.2483953453</v>
       </c>
       <c r="E2" t="n">
-        <v>562199.1866523838</v>
+        <v>562199.1866523835</v>
       </c>
       <c r="F2" t="n">
-        <v>562199.1866523833</v>
+        <v>562199.1866523834</v>
       </c>
       <c r="G2" t="n">
-        <v>614099.2483953453</v>
+        <v>614099.2483953456</v>
       </c>
       <c r="H2" t="n">
         <v>614099.2483953455</v>
       </c>
       <c r="I2" t="n">
-        <v>614099.2483953455</v>
+        <v>614099.2483953453</v>
       </c>
       <c r="J2" t="n">
-        <v>590292.2106601337</v>
+        <v>590292.2106601335</v>
       </c>
       <c r="K2" t="n">
-        <v>590292.2106601333</v>
+        <v>590292.2106601334</v>
       </c>
       <c r="L2" t="n">
         <v>614099.2483953449</v>
       </c>
       <c r="M2" t="n">
-        <v>614099.2483953459</v>
+        <v>614099.2483953453</v>
       </c>
       <c r="N2" t="n">
-        <v>614099.2483953458</v>
+        <v>614099.2483953453</v>
       </c>
       <c r="O2" t="n">
-        <v>609162.7336894409</v>
+        <v>609162.733689441</v>
       </c>
       <c r="P2" t="n">
-        <v>609162.7336894412</v>
+        <v>609162.733689441</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29106.64661673132</v>
+        <v>29106.64661673104</v>
       </c>
       <c r="E3" t="n">
-        <v>342122.2214172023</v>
+        <v>342122.2214172019</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>43762.70513923001</v>
+        <v>43762.70513923003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71796.10678676418</v>
+        <v>71796.10678676402</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>83095.65910661516</v>
+        <v>83095.65910661519</v>
       </c>
       <c r="M3" t="n">
-        <v>137999.1908297194</v>
+        <v>137999.1908297195</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35004.37069606938</v>
+        <v>35004.37069606932</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>382730.8693733049</v>
       </c>
       <c r="D4" t="n">
-        <v>367493.7567691284</v>
+        <v>367493.7567691286</v>
       </c>
       <c r="E4" t="n">
         <v>232128.4139987603</v>
@@ -26439,10 +26439,10 @@
         <v>268920.4091468042</v>
       </c>
       <c r="J4" t="n">
-        <v>252632.3328498751</v>
+        <v>252632.332849875</v>
       </c>
       <c r="K4" t="n">
-        <v>252632.3328498751</v>
+        <v>252632.332849875</v>
       </c>
       <c r="L4" t="n">
         <v>269002.102957733</v>
@@ -26473,43 +26473,43 @@
         <v>34236.18847000223</v>
       </c>
       <c r="D5" t="n">
-        <v>39933.26896543816</v>
+        <v>39933.2689654381</v>
       </c>
       <c r="E5" t="n">
-        <v>51372.42806000797</v>
+        <v>51372.42806000793</v>
       </c>
       <c r="F5" t="n">
         <v>51372.42806000797</v>
       </c>
       <c r="G5" t="n">
-        <v>55971.28663294537</v>
+        <v>55971.28663294538</v>
       </c>
       <c r="H5" t="n">
-        <v>55971.28663294537</v>
+        <v>55971.28663294538</v>
       </c>
       <c r="I5" t="n">
         <v>55971.28663294537</v>
       </c>
       <c r="J5" t="n">
-        <v>58284.0146487347</v>
+        <v>58284.01464873466</v>
       </c>
       <c r="K5" t="n">
-        <v>58284.0146487347</v>
+        <v>58284.01464873466</v>
       </c>
       <c r="L5" t="n">
-        <v>56720.2867871539</v>
+        <v>56720.28678715392</v>
       </c>
       <c r="M5" t="n">
-        <v>55971.28663294536</v>
+        <v>55971.28663294538</v>
       </c>
       <c r="N5" t="n">
         <v>55971.28663294537</v>
       </c>
       <c r="O5" t="n">
-        <v>55505.7806938631</v>
+        <v>55505.78069386309</v>
       </c>
       <c r="P5" t="n">
-        <v>55505.7806938631</v>
+        <v>55505.78069386309</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193654.6064695579</v>
+        <v>193654.2217492464</v>
       </c>
       <c r="C6" t="n">
-        <v>197009.0800523302</v>
+        <v>197008.6953320187</v>
       </c>
       <c r="D6" t="n">
-        <v>177565.5760440475</v>
+        <v>177565.5760440476</v>
       </c>
       <c r="E6" t="n">
-        <v>-63423.87682358672</v>
+        <v>-63586.06451653335</v>
       </c>
       <c r="F6" t="n">
-        <v>278698.344593615</v>
+        <v>278536.1569006679</v>
       </c>
       <c r="G6" t="n">
-        <v>245444.8474763657</v>
+        <v>245444.847476366</v>
       </c>
       <c r="H6" t="n">
         <v>289207.5526155959</v>
       </c>
       <c r="I6" t="n">
-        <v>289207.552615596</v>
+        <v>289207.5526155957</v>
       </c>
       <c r="J6" t="n">
-        <v>207579.7563747597</v>
+        <v>207505.3593818374</v>
       </c>
       <c r="K6" t="n">
-        <v>279375.8631615235</v>
+        <v>279301.4661686012</v>
       </c>
       <c r="L6" t="n">
-        <v>205281.199543843</v>
+        <v>205281.1995438428</v>
       </c>
       <c r="M6" t="n">
-        <v>151208.3617858769</v>
+        <v>151208.3617858762</v>
       </c>
       <c r="N6" t="n">
-        <v>289207.5526155962</v>
+        <v>289207.5526155957</v>
       </c>
       <c r="O6" t="n">
-        <v>253253.4341859838</v>
+        <v>253238.0075775281</v>
       </c>
       <c r="P6" t="n">
-        <v>288257.8048820536</v>
+        <v>288242.3782735974</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>158.6994151829677</v>
       </c>
       <c r="I2" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="J2" t="n">
         <v>103.9960337589302</v>
@@ -26716,10 +26716,10 @@
         <v>153.1622262181616</v>
       </c>
       <c r="M2" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="N2" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="O2" t="n">
         <v>153.1622262181616</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>115.6680278983507</v>
+        <v>115.6680278983502</v>
       </c>
       <c r="F3" t="n">
         <v>115.6680278983506</v>
@@ -26793,43 +26793,43 @@
         <v>10.00967878293136</v>
       </c>
       <c r="D4" t="n">
-        <v>103.7116606157592</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="E4" t="n">
-        <v>659.6714225286912</v>
+        <v>659.6714225286906</v>
       </c>
       <c r="F4" t="n">
         <v>659.6714225286912</v>
       </c>
       <c r="G4" t="n">
-        <v>659.6714225286911</v>
+        <v>659.6714225286912</v>
       </c>
       <c r="H4" t="n">
         <v>659.6714225286912</v>
       </c>
       <c r="I4" t="n">
-        <v>659.6714225286912</v>
+        <v>659.6714225286911</v>
       </c>
       <c r="J4" t="n">
-        <v>773.3488335274861</v>
+        <v>773.3488335274856</v>
       </c>
       <c r="K4" t="n">
-        <v>773.3488335274861</v>
+        <v>773.3488335274856</v>
       </c>
       <c r="L4" t="n">
-        <v>679.6468516946583</v>
+        <v>679.6468516946586</v>
       </c>
       <c r="M4" t="n">
+        <v>659.6714225286913</v>
+      </c>
+      <c r="N4" t="n">
         <v>659.6714225286911</v>
       </c>
-      <c r="N4" t="n">
-        <v>659.6714225286912</v>
-      </c>
       <c r="O4" t="n">
-        <v>659.6714225286912</v>
+        <v>659.6714225286911</v>
       </c>
       <c r="P4" t="n">
-        <v>659.6714225286912</v>
+        <v>659.6714225286911</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>54.7033814240375</v>
+        <v>54.70338142403754</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>49.29265233489274</v>
+        <v>49.29265233489269</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>103.8695738832689</v>
+        <v>103.869573883269</v>
       </c>
       <c r="M2" t="n">
-        <v>5.537188964805978</v>
+        <v>5.537188964806035</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.75546337008673</v>
+        <v>43.75546337008666</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>115.6680278983507</v>
+        <v>115.6680278983502</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>93.70198183282787</v>
+        <v>93.70198183282696</v>
       </c>
       <c r="E4" t="n">
-        <v>555.959761912932</v>
+        <v>555.9597619129323</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>123.6870897817263</v>
+        <v>123.6870897817258</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>535.9843327469648</v>
+        <v>535.984332746965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.7033814240375</v>
+        <v>54.70338142403754</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>49.29265233489274</v>
+        <v>49.29265233489269</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>93.70198183282787</v>
+        <v>93.70198183282696</v>
       </c>
       <c r="M4" t="n">
-        <v>555.959761912932</v>
+        <v>555.9597619129323</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>162.272501731286</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>212.1056780233676</v>
+        <v>213.298831734293</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>242.3268041402145</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.8155695705169</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -27470,10 +27470,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>117.4315361940169</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>90.12195380676299</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.36990114399772</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>141.2618133344558</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.9032899255301</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>157.9101310600051</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27549,13 +27549,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>157.2208723628971</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>132.7513351704169</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>139.2100384997596</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>220.8374848695466</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>273.2851586848435</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>161.0793480203606</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>324.7929562910121</v>
       </c>
       <c r="W5" t="n">
-        <v>350.093055768969</v>
+        <v>348.8999020580436</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27707,7 +27707,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>117.4315361940169</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -27743,10 +27743,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>141.2618133344558</v>
+        <v>142.4549670453812</v>
       </c>
       <c r="T6" t="n">
-        <v>177.9817277236687</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>206.3001656947416</v>
@@ -27758,10 +27758,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>180.5864343039856</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>140.9461696415493</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27819,25 +27819,25 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>139.2100384997596</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>222.030638580472</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>274.3086583328597</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>248.1182726142302</v>
       </c>
       <c r="W7" t="n">
         <v>273.2851586848435</v>
       </c>
       <c r="X7" t="n">
-        <v>218.9302606806466</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27856,10 +27856,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>265.3840645092903</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>287.1262020791959</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>118.4036961905397</v>
+        <v>118.4036961905406</v>
       </c>
       <c r="U8" t="n">
-        <v>148.6248223073867</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>264.2128761559435</v>
       </c>
       <c r="W8" t="n">
-        <v>275.5332186572455</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27935,7 +27935,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>33.73859002393081</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -27944,10 +27944,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>95.27841052259205</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>47.55983150162788</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>83.08659217991632</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>112.5981838619146</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>135.1910494632647</v>
       </c>
       <c r="X9" t="n">
-        <v>99.81540583363235</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28014,13 +28014,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>60.19194357015419</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>59.13969342593448</v>
       </c>
       <c r="F10" t="n">
-        <v>47.24418780872142</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
@@ -28029,7 +28029,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>39.04935333758903</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>127.1355030367187</v>
+        <v>127.1355030367196</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>180.6066765000328</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>179.5831768520165</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.52252973972921</v>
+        <v>60.52252973972935</v>
       </c>
       <c r="S11" t="n">
         <v>103.9960337589302</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.52252973972925</v>
+        <v>60.52252973972924</v>
       </c>
       <c r="S14" t="n">
         <v>103.9960337589302</v>
@@ -28776,7 +28776,7 @@
         <v>158.6994151829677</v>
       </c>
       <c r="U19" t="n">
-        <v>158.6994151829677</v>
+        <v>102.9124989555461</v>
       </c>
       <c r="V19" t="n">
         <v>158.6994151829677</v>
@@ -28785,7 +28785,7 @@
         <v>158.6994151829677</v>
       </c>
       <c r="X19" t="n">
-        <v>102.9124989555462</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="Y19" t="n">
         <v>158.6994151829677</v>
@@ -29004,7 +29004,7 @@
         <v>20.68609572019691</v>
       </c>
       <c r="R22" t="n">
-        <v>138.6479723261059</v>
+        <v>82.86105609868422</v>
       </c>
       <c r="S22" t="n">
         <v>158.6994151829677</v>
@@ -29013,7 +29013,7 @@
         <v>158.6994151829677</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9124989555465</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="V22" t="n">
         <v>158.6994151829677</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="C23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="D23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="E23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="F23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="G23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="H23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="I23" t="n">
         <v>153.1622262181616</v>
@@ -29086,25 +29086,25 @@
         <v>60.52252973972924</v>
       </c>
       <c r="S23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="T23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="U23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="V23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="W23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="X23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="Y23" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="C25" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="H25" t="n">
         <v>155.924437927788</v>
@@ -29241,28 +29241,28 @@
         <v>20.68609572019691</v>
       </c>
       <c r="R25" t="n">
-        <v>138.6479723261059</v>
+        <v>82.86105609868466</v>
       </c>
       <c r="S25" t="n">
-        <v>102.9124989555468</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="T25" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="U25" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="V25" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="W25" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="X25" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
     </row>
     <row r="26">
@@ -29296,13 +29296,13 @@
         <v>103.9960337589302</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>103.9960337589302</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29311,16 +29311,16 @@
         <v>103.9960337589302</v>
       </c>
       <c r="O26" t="n">
+        <v>94.65501199216374</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>103.9960337589302</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>103.9960337589302</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>94.65501199216597</v>
       </c>
       <c r="S26" t="n">
         <v>103.9960337589302</v>
@@ -29542,7 +29542,7 @@
         <v>103.9960337589302</v>
       </c>
       <c r="M29" t="n">
-        <v>103.9960337589302</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>103.9960337589302</v>
@@ -29551,13 +29551,13 @@
         <v>103.9960337589302</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>34.13248225243501</v>
       </c>
       <c r="Q29" t="n">
-        <v>34.13248225243674</v>
+        <v>103.9960337589302</v>
       </c>
       <c r="R29" t="n">
-        <v>60.52252973972924</v>
+        <v>60.52252973972925</v>
       </c>
       <c r="S29" t="n">
         <v>103.9960337589302</v>
@@ -29709,7 +29709,7 @@
         <v>103.9960337589302</v>
       </c>
       <c r="P31" t="n">
-        <v>103.9960337589298</v>
+        <v>103.9960337589302</v>
       </c>
       <c r="Q31" t="n">
         <v>103.9960337589302</v>
@@ -29785,7 +29785,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>79.09462861675837</v>
+        <v>79.09462861675973</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>152.8837665922289</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.08093821613154</v>
+        <v>20.68609572019691</v>
       </c>
       <c r="R34" t="n">
         <v>138.6479723261059</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="C35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="D35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="E35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="F35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="G35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="H35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="I35" t="n">
         <v>153.1622262181616</v>
@@ -30034,25 +30034,25 @@
         <v>60.52252973972924</v>
       </c>
       <c r="S35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="T35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="U35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="V35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="W35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="X35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="Y35" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
     </row>
     <row r="36">
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="C37" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="D37" t="n">
-        <v>95.75425801309424</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="H37" t="n">
         <v>155.924437927788</v>
@@ -30192,25 +30192,25 @@
         <v>138.6479723261059</v>
       </c>
       <c r="S37" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="T37" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="U37" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="V37" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="W37" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="X37" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="Y37" t="n">
-        <v>158.6994151829676</v>
+        <v>102.9124989555464</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="C38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="D38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="E38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="F38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="G38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="H38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="I38" t="n">
         <v>153.1622262181616</v>
@@ -30271,25 +30271,25 @@
         <v>60.52252973972924</v>
       </c>
       <c r="S38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="T38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="U38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="V38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="W38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="X38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="Y38" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="C40" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="H40" t="n">
-        <v>100.1375217003672</v>
+        <v>155.924437927788</v>
       </c>
       <c r="I40" t="n">
         <v>136.4883936863361</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.68609572019691</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>138.6479723261059</v>
       </c>
       <c r="S40" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="T40" t="n">
-        <v>158.6994151829676</v>
+        <v>123.5985946757434</v>
       </c>
       <c r="U40" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="V40" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="W40" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="X40" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
       <c r="Y40" t="n">
-        <v>158.6994151829676</v>
+        <v>158.6994151829677</v>
       </c>
     </row>
     <row r="41">
@@ -30621,13 +30621,13 @@
         <v>153.1622262181616</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>151.7296389427685</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>153.1622262181616</v>
       </c>
       <c r="G43" t="n">
         <v>153.1622262181616</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.39484249593454</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30882,16 +30882,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>2.39484249593454</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4649970970787964</v>
+        <v>0.4649970970787943</v>
       </c>
       <c r="H11" t="n">
-        <v>4.762151520458225</v>
+        <v>4.762151520458203</v>
       </c>
       <c r="I11" t="n">
-        <v>17.92680058513032</v>
+        <v>17.92680058513023</v>
       </c>
       <c r="J11" t="n">
-        <v>39.46604736819153</v>
+        <v>39.46604736819135</v>
       </c>
       <c r="K11" t="n">
-        <v>59.149374487537</v>
+        <v>59.14937448753673</v>
       </c>
       <c r="L11" t="n">
-        <v>73.38002939726223</v>
+        <v>73.38002939726189</v>
       </c>
       <c r="M11" t="n">
-        <v>81.64942152243728</v>
+        <v>81.6494215224369</v>
       </c>
       <c r="N11" t="n">
-        <v>82.97059452451241</v>
+        <v>82.97059452451202</v>
       </c>
       <c r="O11" t="n">
-        <v>78.34677964043513</v>
+        <v>78.34677964043476</v>
       </c>
       <c r="P11" t="n">
-        <v>66.86716380630233</v>
+        <v>66.86716380630202</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.21445526716791</v>
+        <v>50.21445526716768</v>
       </c>
       <c r="R11" t="n">
-        <v>29.20937389937597</v>
+        <v>29.20937389937584</v>
       </c>
       <c r="S11" t="n">
-        <v>10.59612134968308</v>
+        <v>10.59612134968303</v>
       </c>
       <c r="T11" t="n">
-        <v>2.035524792462432</v>
+        <v>2.035524792462423</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03719976776630371</v>
+        <v>0.03719976776630354</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2487953807624902</v>
+        <v>0.248795380762489</v>
       </c>
       <c r="H12" t="n">
-        <v>2.402839598416682</v>
+        <v>2.402839598416671</v>
       </c>
       <c r="I12" t="n">
-        <v>8.565981311340124</v>
+        <v>8.565981311340083</v>
       </c>
       <c r="J12" t="n">
-        <v>23.50570744300352</v>
+        <v>23.50570744300341</v>
       </c>
       <c r="K12" t="n">
-        <v>40.17499795409036</v>
+        <v>40.17499795409017</v>
       </c>
       <c r="L12" t="n">
-        <v>54.02024265196087</v>
+        <v>54.02024265196061</v>
       </c>
       <c r="M12" t="n">
-        <v>63.03907520460113</v>
+        <v>63.03907520460083</v>
       </c>
       <c r="N12" t="n">
-        <v>64.70753194664432</v>
+        <v>64.70753194664402</v>
       </c>
       <c r="O12" t="n">
-        <v>59.19475008869652</v>
+        <v>59.19475008869624</v>
       </c>
       <c r="P12" t="n">
-        <v>47.50900564753201</v>
+        <v>47.50900564753179</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.7585121127698</v>
+        <v>31.75851211276965</v>
       </c>
       <c r="R12" t="n">
-        <v>15.44713776348163</v>
+        <v>15.44713776348156</v>
       </c>
       <c r="S12" t="n">
-        <v>4.621265076882216</v>
+        <v>4.621265076882194</v>
       </c>
       <c r="T12" t="n">
-        <v>1.002819977722493</v>
+        <v>1.002819977722488</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01636811715542699</v>
+        <v>0.01636811715542692</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2085816896527635</v>
+        <v>0.2085816896527626</v>
       </c>
       <c r="H13" t="n">
-        <v>1.854480840730935</v>
+        <v>1.854480840730927</v>
       </c>
       <c r="I13" t="n">
-        <v>6.2726202670122</v>
+        <v>6.27262026701217</v>
       </c>
       <c r="J13" t="n">
-        <v>14.74672545845038</v>
+        <v>14.74672545845031</v>
       </c>
       <c r="K13" t="n">
-        <v>24.23339994329379</v>
+        <v>24.23339994329368</v>
       </c>
       <c r="L13" t="n">
-        <v>31.01040865982996</v>
+        <v>31.01040865982981</v>
       </c>
       <c r="M13" t="n">
-        <v>32.69612795166001</v>
+        <v>32.69612795165986</v>
       </c>
       <c r="N13" t="n">
-        <v>31.91868710840883</v>
+        <v>31.91868710840868</v>
       </c>
       <c r="O13" t="n">
-        <v>29.48207373382881</v>
+        <v>29.48207373382867</v>
       </c>
       <c r="P13" t="n">
-        <v>25.22700726491241</v>
+        <v>25.22700726491229</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.46587221265095</v>
+        <v>17.46587221265087</v>
       </c>
       <c r="R13" t="n">
-        <v>9.378591245659711</v>
+        <v>9.378591245659667</v>
       </c>
       <c r="S13" t="n">
-        <v>3.635009991494069</v>
+        <v>3.635009991494052</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8912126739708985</v>
+        <v>0.8912126739708943</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01137718307196893</v>
+        <v>0.01137718307196888</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4649970970787959</v>
+        <v>0.4649970970787961</v>
       </c>
       <c r="H14" t="n">
-        <v>4.762151520458219</v>
+        <v>4.762151520458222</v>
       </c>
       <c r="I14" t="n">
-        <v>17.92680058513029</v>
+        <v>17.92680058513031</v>
       </c>
       <c r="J14" t="n">
-        <v>39.46604736819149</v>
+        <v>39.4660473681915</v>
       </c>
       <c r="K14" t="n">
-        <v>59.14937448753692</v>
+        <v>59.14937448753695</v>
       </c>
       <c r="L14" t="n">
-        <v>73.38002939726213</v>
+        <v>73.38002939726218</v>
       </c>
       <c r="M14" t="n">
-        <v>81.64942152243718</v>
+        <v>81.64942152243721</v>
       </c>
       <c r="N14" t="n">
-        <v>82.97059452451231</v>
+        <v>82.97059452451235</v>
       </c>
       <c r="O14" t="n">
-        <v>78.34677964043503</v>
+        <v>78.34677964043506</v>
       </c>
       <c r="P14" t="n">
-        <v>66.86716380630224</v>
+        <v>66.86716380630227</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.21445526716785</v>
+        <v>50.21445526716788</v>
       </c>
       <c r="R14" t="n">
-        <v>29.20937389937594</v>
+        <v>29.20937389937595</v>
       </c>
       <c r="S14" t="n">
-        <v>10.59612134968307</v>
+        <v>10.59612134968308</v>
       </c>
       <c r="T14" t="n">
-        <v>2.03552479246243</v>
+        <v>2.035524792462431</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03719976776630366</v>
+        <v>0.03719976776630368</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2487953807624899</v>
+        <v>0.24879538076249</v>
       </c>
       <c r="H15" t="n">
-        <v>2.402839598416679</v>
+        <v>2.40283959841668</v>
       </c>
       <c r="I15" t="n">
-        <v>8.565981311340114</v>
+        <v>8.565981311340117</v>
       </c>
       <c r="J15" t="n">
-        <v>23.50570744300349</v>
+        <v>23.5057074430035</v>
       </c>
       <c r="K15" t="n">
-        <v>40.17499795409031</v>
+        <v>40.17499795409033</v>
       </c>
       <c r="L15" t="n">
-        <v>54.0202426519608</v>
+        <v>54.02024265196083</v>
       </c>
       <c r="M15" t="n">
-        <v>63.03907520460105</v>
+        <v>63.03907520460108</v>
       </c>
       <c r="N15" t="n">
-        <v>64.70753194664425</v>
+        <v>64.70753194664428</v>
       </c>
       <c r="O15" t="n">
-        <v>59.19475008869644</v>
+        <v>59.19475008869647</v>
       </c>
       <c r="P15" t="n">
-        <v>47.50900564753196</v>
+        <v>47.50900564753198</v>
       </c>
       <c r="Q15" t="n">
-        <v>31.75851211276976</v>
+        <v>31.75851211276978</v>
       </c>
       <c r="R15" t="n">
         <v>15.44713776348162</v>
       </c>
       <c r="S15" t="n">
-        <v>4.62126507688221</v>
+        <v>4.621265076882213</v>
       </c>
       <c r="T15" t="n">
         <v>1.002819977722492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01636811715542697</v>
+        <v>0.01636811715542698</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2085816896527633</v>
+        <v>0.2085816896527634</v>
       </c>
       <c r="H16" t="n">
-        <v>1.854480840730933</v>
+        <v>1.854480840730934</v>
       </c>
       <c r="I16" t="n">
-        <v>6.272620267012193</v>
+        <v>6.272620267012195</v>
       </c>
       <c r="J16" t="n">
-        <v>14.74672545845036</v>
+        <v>14.74672545845037</v>
       </c>
       <c r="K16" t="n">
-        <v>24.23339994329377</v>
+        <v>24.23339994329378</v>
       </c>
       <c r="L16" t="n">
-        <v>31.01040865982992</v>
+        <v>31.01040865982993</v>
       </c>
       <c r="M16" t="n">
-        <v>32.69612795165997</v>
+        <v>32.69612795165999</v>
       </c>
       <c r="N16" t="n">
-        <v>31.91868710840879</v>
+        <v>31.9186871084088</v>
       </c>
       <c r="O16" t="n">
-        <v>29.48207373382877</v>
+        <v>29.48207373382878</v>
       </c>
       <c r="P16" t="n">
-        <v>25.22700726491238</v>
+        <v>25.22700726491239</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.46587221265093</v>
+        <v>17.46587221265094</v>
       </c>
       <c r="R16" t="n">
-        <v>9.378591245659699</v>
+        <v>9.378591245659704</v>
       </c>
       <c r="S16" t="n">
-        <v>3.635009991494064</v>
+        <v>3.635009991494066</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8912126739708974</v>
+        <v>0.8912126739708979</v>
       </c>
       <c r="U16" t="n">
         <v>0.01137718307196892</v>
@@ -32227,10 +32227,10 @@
         <v>0.4649970970787961</v>
       </c>
       <c r="H17" t="n">
-        <v>4.762151520458221</v>
+        <v>4.762151520458222</v>
       </c>
       <c r="I17" t="n">
-        <v>17.9268005851303</v>
+        <v>17.92680058513031</v>
       </c>
       <c r="J17" t="n">
         <v>39.4660473681915</v>
@@ -32239,13 +32239,13 @@
         <v>59.14937448753695</v>
       </c>
       <c r="L17" t="n">
-        <v>73.38002939726216</v>
+        <v>73.38002939726218</v>
       </c>
       <c r="M17" t="n">
         <v>81.64942152243721</v>
       </c>
       <c r="N17" t="n">
-        <v>82.97059452451234</v>
+        <v>82.97059452451235</v>
       </c>
       <c r="O17" t="n">
         <v>78.34677964043506</v>
@@ -32254,7 +32254,7 @@
         <v>66.86716380630227</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.21445526716787</v>
+        <v>50.21445526716788</v>
       </c>
       <c r="R17" t="n">
         <v>29.20937389937595</v>
@@ -32266,7 +32266,7 @@
         <v>2.035524792462431</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03719976776630367</v>
+        <v>0.03719976776630368</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,22 +32315,22 @@
         <v>23.5057074430035</v>
       </c>
       <c r="K18" t="n">
-        <v>40.17499795409032</v>
+        <v>40.17499795409033</v>
       </c>
       <c r="L18" t="n">
-        <v>54.02024265196082</v>
+        <v>54.02024265196083</v>
       </c>
       <c r="M18" t="n">
-        <v>63.03907520460107</v>
+        <v>63.03907520460108</v>
       </c>
       <c r="N18" t="n">
-        <v>64.70753194664427</v>
+        <v>64.70753194664428</v>
       </c>
       <c r="O18" t="n">
-        <v>59.19475008869646</v>
+        <v>59.19475008869647</v>
       </c>
       <c r="P18" t="n">
-        <v>47.50900564753197</v>
+        <v>47.50900564753198</v>
       </c>
       <c r="Q18" t="n">
         <v>31.75851211276978</v>
@@ -32339,7 +32339,7 @@
         <v>15.44713776348162</v>
       </c>
       <c r="S18" t="n">
-        <v>4.621265076882212</v>
+        <v>4.621265076882213</v>
       </c>
       <c r="T18" t="n">
         <v>1.002819977722492</v>
@@ -32388,19 +32388,19 @@
         <v>1.854480840730934</v>
       </c>
       <c r="I19" t="n">
-        <v>6.272620267012194</v>
+        <v>6.272620267012195</v>
       </c>
       <c r="J19" t="n">
         <v>14.74672545845037</v>
       </c>
       <c r="K19" t="n">
-        <v>24.23339994329377</v>
+        <v>24.23339994329378</v>
       </c>
       <c r="L19" t="n">
         <v>31.01040865982993</v>
       </c>
       <c r="M19" t="n">
-        <v>32.69612795165998</v>
+        <v>32.69612795165999</v>
       </c>
       <c r="N19" t="n">
         <v>31.9186871084088</v>
@@ -32415,13 +32415,13 @@
         <v>17.46587221265094</v>
       </c>
       <c r="R19" t="n">
-        <v>9.378591245659702</v>
+        <v>9.378591245659704</v>
       </c>
       <c r="S19" t="n">
         <v>3.635009991494066</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8912126739708978</v>
+        <v>0.8912126739708979</v>
       </c>
       <c r="U19" t="n">
         <v>0.01137718307196892</v>
@@ -32464,10 +32464,10 @@
         <v>0.4649970970787961</v>
       </c>
       <c r="H20" t="n">
-        <v>4.762151520458221</v>
+        <v>4.762151520458222</v>
       </c>
       <c r="I20" t="n">
-        <v>17.9268005851303</v>
+        <v>17.92680058513031</v>
       </c>
       <c r="J20" t="n">
         <v>39.4660473681915</v>
@@ -32476,13 +32476,13 @@
         <v>59.14937448753695</v>
       </c>
       <c r="L20" t="n">
-        <v>73.38002939726216</v>
+        <v>73.38002939726218</v>
       </c>
       <c r="M20" t="n">
         <v>81.64942152243721</v>
       </c>
       <c r="N20" t="n">
-        <v>82.97059452451234</v>
+        <v>82.97059452451235</v>
       </c>
       <c r="O20" t="n">
         <v>78.34677964043506</v>
@@ -32491,7 +32491,7 @@
         <v>66.86716380630227</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.21445526716787</v>
+        <v>50.21445526716788</v>
       </c>
       <c r="R20" t="n">
         <v>29.20937389937595</v>
@@ -32503,7 +32503,7 @@
         <v>2.035524792462431</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03719976776630367</v>
+        <v>0.03719976776630368</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,22 +32552,22 @@
         <v>23.5057074430035</v>
       </c>
       <c r="K21" t="n">
-        <v>40.17499795409032</v>
+        <v>40.17499795409033</v>
       </c>
       <c r="L21" t="n">
-        <v>54.02024265196082</v>
+        <v>54.02024265196083</v>
       </c>
       <c r="M21" t="n">
-        <v>63.03907520460107</v>
+        <v>63.03907520460108</v>
       </c>
       <c r="N21" t="n">
-        <v>64.70753194664427</v>
+        <v>64.70753194664428</v>
       </c>
       <c r="O21" t="n">
-        <v>59.19475008869646</v>
+        <v>59.19475008869647</v>
       </c>
       <c r="P21" t="n">
-        <v>47.50900564753197</v>
+        <v>47.50900564753198</v>
       </c>
       <c r="Q21" t="n">
         <v>31.75851211276978</v>
@@ -32576,7 +32576,7 @@
         <v>15.44713776348162</v>
       </c>
       <c r="S21" t="n">
-        <v>4.621265076882212</v>
+        <v>4.621265076882213</v>
       </c>
       <c r="T21" t="n">
         <v>1.002819977722492</v>
@@ -32625,19 +32625,19 @@
         <v>1.854480840730934</v>
       </c>
       <c r="I22" t="n">
-        <v>6.272620267012194</v>
+        <v>6.272620267012195</v>
       </c>
       <c r="J22" t="n">
         <v>14.74672545845037</v>
       </c>
       <c r="K22" t="n">
-        <v>24.23339994329377</v>
+        <v>24.23339994329378</v>
       </c>
       <c r="L22" t="n">
         <v>31.01040865982993</v>
       </c>
       <c r="M22" t="n">
-        <v>32.69612795165998</v>
+        <v>32.69612795165999</v>
       </c>
       <c r="N22" t="n">
         <v>31.9186871084088</v>
@@ -32652,13 +32652,13 @@
         <v>17.46587221265094</v>
       </c>
       <c r="R22" t="n">
-        <v>9.378591245659702</v>
+        <v>9.378591245659704</v>
       </c>
       <c r="S22" t="n">
         <v>3.635009991494066</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8912126739708978</v>
+        <v>0.8912126739708979</v>
       </c>
       <c r="U22" t="n">
         <v>0.01137718307196892</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4649970970787959</v>
+        <v>0.4649970970787961</v>
       </c>
       <c r="H26" t="n">
-        <v>4.762151520458219</v>
+        <v>4.762151520458221</v>
       </c>
       <c r="I26" t="n">
-        <v>17.92680058513029</v>
+        <v>17.9268005851303</v>
       </c>
       <c r="J26" t="n">
-        <v>39.46604736819149</v>
+        <v>39.4660473681915</v>
       </c>
       <c r="K26" t="n">
-        <v>59.14937448753692</v>
+        <v>59.14937448753695</v>
       </c>
       <c r="L26" t="n">
-        <v>73.38002939726213</v>
+        <v>73.38002939726216</v>
       </c>
       <c r="M26" t="n">
-        <v>81.64942152243718</v>
+        <v>81.64942152243721</v>
       </c>
       <c r="N26" t="n">
-        <v>82.97059452451231</v>
+        <v>82.97059452451234</v>
       </c>
       <c r="O26" t="n">
-        <v>78.34677964043503</v>
+        <v>78.34677964043506</v>
       </c>
       <c r="P26" t="n">
-        <v>66.86716380630224</v>
+        <v>66.86716380630227</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.21445526716785</v>
+        <v>50.21445526716787</v>
       </c>
       <c r="R26" t="n">
-        <v>29.20937389937594</v>
+        <v>29.20937389937595</v>
       </c>
       <c r="S26" t="n">
-        <v>10.59612134968307</v>
+        <v>10.59612134968308</v>
       </c>
       <c r="T26" t="n">
-        <v>2.03552479246243</v>
+        <v>2.035524792462431</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03719976776630366</v>
+        <v>0.03719976776630367</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2487953807624899</v>
+        <v>0.24879538076249</v>
       </c>
       <c r="H27" t="n">
-        <v>2.402839598416679</v>
+        <v>2.40283959841668</v>
       </c>
       <c r="I27" t="n">
-        <v>8.565981311340114</v>
+        <v>8.565981311340117</v>
       </c>
       <c r="J27" t="n">
-        <v>23.50570744300349</v>
+        <v>23.5057074430035</v>
       </c>
       <c r="K27" t="n">
-        <v>40.17499795409031</v>
+        <v>40.17499795409032</v>
       </c>
       <c r="L27" t="n">
-        <v>54.0202426519608</v>
+        <v>54.02024265196082</v>
       </c>
       <c r="M27" t="n">
-        <v>63.03907520460105</v>
+        <v>63.03907520460107</v>
       </c>
       <c r="N27" t="n">
-        <v>64.70753194664425</v>
+        <v>64.70753194664427</v>
       </c>
       <c r="O27" t="n">
-        <v>59.19475008869644</v>
+        <v>59.19475008869646</v>
       </c>
       <c r="P27" t="n">
-        <v>47.50900564753196</v>
+        <v>47.50900564753197</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.75851211276976</v>
+        <v>31.75851211276978</v>
       </c>
       <c r="R27" t="n">
         <v>15.44713776348162</v>
       </c>
       <c r="S27" t="n">
-        <v>4.62126507688221</v>
+        <v>4.621265076882212</v>
       </c>
       <c r="T27" t="n">
         <v>1.002819977722492</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01636811715542697</v>
+        <v>0.01636811715542698</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2085816896527633</v>
+        <v>0.2085816896527634</v>
       </c>
       <c r="H28" t="n">
-        <v>1.854480840730933</v>
+        <v>1.854480840730934</v>
       </c>
       <c r="I28" t="n">
-        <v>6.272620267012193</v>
+        <v>6.272620267012194</v>
       </c>
       <c r="J28" t="n">
-        <v>14.74672545845036</v>
+        <v>14.74672545845037</v>
       </c>
       <c r="K28" t="n">
         <v>24.23339994329377</v>
       </c>
       <c r="L28" t="n">
-        <v>31.01040865982992</v>
+        <v>31.01040865982993</v>
       </c>
       <c r="M28" t="n">
-        <v>32.69612795165997</v>
+        <v>32.69612795165998</v>
       </c>
       <c r="N28" t="n">
-        <v>31.91868710840879</v>
+        <v>31.9186871084088</v>
       </c>
       <c r="O28" t="n">
-        <v>29.48207373382877</v>
+        <v>29.48207373382878</v>
       </c>
       <c r="P28" t="n">
-        <v>25.22700726491238</v>
+        <v>25.22700726491239</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.46587221265093</v>
+        <v>17.46587221265094</v>
       </c>
       <c r="R28" t="n">
-        <v>9.378591245659699</v>
+        <v>9.378591245659702</v>
       </c>
       <c r="S28" t="n">
-        <v>3.635009991494064</v>
+        <v>3.635009991494066</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8912126739708974</v>
+        <v>0.8912126739708978</v>
       </c>
       <c r="U28" t="n">
         <v>0.01137718307196892</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4649970970787961</v>
+        <v>0.4649970970787959</v>
       </c>
       <c r="H29" t="n">
-        <v>4.762151520458221</v>
+        <v>4.762151520458219</v>
       </c>
       <c r="I29" t="n">
-        <v>17.9268005851303</v>
+        <v>17.92680058513029</v>
       </c>
       <c r="J29" t="n">
-        <v>39.4660473681915</v>
+        <v>39.46604736819149</v>
       </c>
       <c r="K29" t="n">
-        <v>59.14937448753695</v>
+        <v>59.14937448753692</v>
       </c>
       <c r="L29" t="n">
-        <v>73.38002939726216</v>
+        <v>73.38002939726213</v>
       </c>
       <c r="M29" t="n">
-        <v>81.64942152243721</v>
+        <v>81.64942152243718</v>
       </c>
       <c r="N29" t="n">
-        <v>82.97059452451234</v>
+        <v>82.97059452451231</v>
       </c>
       <c r="O29" t="n">
-        <v>78.34677964043506</v>
+        <v>78.34677964043503</v>
       </c>
       <c r="P29" t="n">
-        <v>66.86716380630227</v>
+        <v>66.86716380630224</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.21445526716787</v>
+        <v>50.21445526716785</v>
       </c>
       <c r="R29" t="n">
-        <v>29.20937389937595</v>
+        <v>29.20937389937594</v>
       </c>
       <c r="S29" t="n">
-        <v>10.59612134968308</v>
+        <v>10.59612134968307</v>
       </c>
       <c r="T29" t="n">
-        <v>2.035524792462431</v>
+        <v>2.03552479246243</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03719976776630367</v>
+        <v>0.03719976776630366</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.24879538076249</v>
+        <v>0.2487953807624899</v>
       </c>
       <c r="H30" t="n">
-        <v>2.40283959841668</v>
+        <v>2.402839598416679</v>
       </c>
       <c r="I30" t="n">
-        <v>8.565981311340117</v>
+        <v>8.565981311340114</v>
       </c>
       <c r="J30" t="n">
-        <v>23.5057074430035</v>
+        <v>23.50570744300349</v>
       </c>
       <c r="K30" t="n">
-        <v>40.17499795409032</v>
+        <v>40.17499795409031</v>
       </c>
       <c r="L30" t="n">
-        <v>54.02024265196082</v>
+        <v>54.0202426519608</v>
       </c>
       <c r="M30" t="n">
-        <v>63.03907520460107</v>
+        <v>63.03907520460105</v>
       </c>
       <c r="N30" t="n">
-        <v>64.70753194664427</v>
+        <v>64.70753194664425</v>
       </c>
       <c r="O30" t="n">
-        <v>59.19475008869646</v>
+        <v>59.19475008869644</v>
       </c>
       <c r="P30" t="n">
-        <v>47.50900564753197</v>
+        <v>47.50900564753196</v>
       </c>
       <c r="Q30" t="n">
-        <v>31.75851211276978</v>
+        <v>31.75851211276976</v>
       </c>
       <c r="R30" t="n">
         <v>15.44713776348162</v>
       </c>
       <c r="S30" t="n">
-        <v>4.621265076882212</v>
+        <v>4.62126507688221</v>
       </c>
       <c r="T30" t="n">
         <v>1.002819977722492</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01636811715542698</v>
+        <v>0.01636811715542697</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2085816896527634</v>
+        <v>0.2085816896527633</v>
       </c>
       <c r="H31" t="n">
-        <v>1.854480840730934</v>
+        <v>1.854480840730933</v>
       </c>
       <c r="I31" t="n">
-        <v>6.272620267012194</v>
+        <v>6.272620267012193</v>
       </c>
       <c r="J31" t="n">
-        <v>14.74672545845037</v>
+        <v>14.74672545845036</v>
       </c>
       <c r="K31" t="n">
         <v>24.23339994329377</v>
       </c>
       <c r="L31" t="n">
-        <v>31.01040865982993</v>
+        <v>31.01040865982992</v>
       </c>
       <c r="M31" t="n">
-        <v>32.69612795165998</v>
+        <v>32.69612795165997</v>
       </c>
       <c r="N31" t="n">
-        <v>31.9186871084088</v>
+        <v>31.91868710840879</v>
       </c>
       <c r="O31" t="n">
-        <v>29.48207373382878</v>
+        <v>29.48207373382877</v>
       </c>
       <c r="P31" t="n">
-        <v>25.22700726491239</v>
+        <v>25.22700726491238</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.46587221265094</v>
+        <v>17.46587221265093</v>
       </c>
       <c r="R31" t="n">
-        <v>9.378591245659702</v>
+        <v>9.378591245659699</v>
       </c>
       <c r="S31" t="n">
-        <v>3.635009991494066</v>
+        <v>3.635009991494064</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8912126739708978</v>
+        <v>0.8912126739708974</v>
       </c>
       <c r="U31" t="n">
         <v>0.01137718307196892</v>
@@ -34702,10 +34702,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M2" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="O3" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9.605247316954337</v>
-      </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>9.605247316954339</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P4" t="n">
         <v>10.00967878293136</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="L5" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="O5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="L6" t="n">
         <v>10.00967878293136</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>9.605247316954339</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>10.00967878293136</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.135175654984111</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>103.7116606157592</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>103.7116606157592</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="P8" t="n">
-        <v>103.7116606157592</v>
+        <v>26.79548819410585</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>103.7116606157592</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>38.65851621400523</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="O9" t="n">
-        <v>103.7116606157592</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="P9" t="n">
-        <v>103.7116606157592</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>99.52129048986907</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,16 +35337,16 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M10" t="n">
-        <v>8.314917409539575</v>
+        <v>103.7116606157583</v>
       </c>
       <c r="N10" t="n">
-        <v>103.7116606157592</v>
+        <v>71.91944642785786</v>
       </c>
       <c r="O10" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P10" t="n">
-        <v>63.604529018321</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>112.1918496639548</v>
+        <v>112.1918496639546</v>
       </c>
       <c r="K11" t="n">
-        <v>301.7154068560044</v>
+        <v>301.7154068560042</v>
       </c>
       <c r="L11" t="n">
-        <v>424.7793961497332</v>
+        <v>424.7793961497329</v>
       </c>
       <c r="M11" t="n">
-        <v>478.8607005659604</v>
+        <v>478.8607005659601</v>
       </c>
       <c r="N11" t="n">
-        <v>465.1234820878616</v>
+        <v>465.1234820878612</v>
       </c>
       <c r="O11" t="n">
-        <v>386.4322185018835</v>
+        <v>386.4322185018832</v>
       </c>
       <c r="P11" t="n">
-        <v>297.3286753780733</v>
+        <v>297.3286753780729</v>
       </c>
       <c r="Q11" t="n">
-        <v>145.6005701020538</v>
+        <v>145.6005701020536</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>84.3684817188682</v>
       </c>
       <c r="K12" t="n">
-        <v>271.9836369037759</v>
+        <v>271.9836369037757</v>
       </c>
       <c r="L12" t="n">
-        <v>105.8960126144161</v>
+        <v>423.5372579753098</v>
       </c>
       <c r="M12" t="n">
-        <v>552.9717555179611</v>
+        <v>552.9717555179609</v>
       </c>
       <c r="N12" t="n">
-        <v>581.1374775255555</v>
+        <v>581.1374775255553</v>
       </c>
       <c r="O12" t="n">
-        <v>455.3563165373338</v>
+        <v>53.34658945757263</v>
       </c>
       <c r="P12" t="n">
-        <v>352.656398855307</v>
+        <v>352.6563988553068</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.1237947244811</v>
+        <v>191.123794724481</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.28609301741156</v>
+        <v>59.2860930174115</v>
       </c>
       <c r="K13" t="n">
-        <v>162.1730576867123</v>
+        <v>162.1730576867122</v>
       </c>
       <c r="L13" t="n">
-        <v>236.6297549442748</v>
+        <v>236.6297549442746</v>
       </c>
       <c r="M13" t="n">
-        <v>255.8775214354404</v>
+        <v>255.8775214354403</v>
       </c>
       <c r="N13" t="n">
-        <v>255.5332478871373</v>
+        <v>255.5332478871372</v>
       </c>
       <c r="O13" t="n">
-        <v>232.9363362762839</v>
+        <v>232.9363362762838</v>
       </c>
       <c r="P13" t="n">
-        <v>192.8275700421636</v>
+        <v>192.8275700421635</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.30993803873328</v>
+        <v>83.30993803873321</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>112.1918496639549</v>
+        <v>112.1918496639548</v>
       </c>
       <c r="K14" t="n">
-        <v>301.7154068560043</v>
+        <v>301.7154068560044</v>
       </c>
       <c r="L14" t="n">
         <v>424.7793961497331</v>
@@ -35656,7 +35656,7 @@
         <v>478.8607005659604</v>
       </c>
       <c r="N14" t="n">
-        <v>465.1234820878615</v>
+        <v>465.1234820878616</v>
       </c>
       <c r="O14" t="n">
         <v>386.4322185018835</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>84.36848171886828</v>
+        <v>84.3684817188683</v>
       </c>
       <c r="K15" t="n">
         <v>271.9836369037758</v>
@@ -35732,10 +35732,10 @@
         <v>423.53725797531</v>
       </c>
       <c r="M15" t="n">
-        <v>150.962028438199</v>
+        <v>552.9717555179611</v>
       </c>
       <c r="N15" t="n">
-        <v>581.1374775255555</v>
+        <v>179.1277504457935</v>
       </c>
       <c r="O15" t="n">
         <v>455.3563165373337</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.28609301741156</v>
+        <v>59.28609301741155</v>
       </c>
       <c r="K16" t="n">
         <v>162.1730576867122</v>
@@ -35823,7 +35823,7 @@
         <v>192.8275700421636</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.30993803873328</v>
+        <v>83.30993803873326</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>552.9717555179611</v>
       </c>
       <c r="N18" t="n">
-        <v>179.1277504457935</v>
+        <v>370.251545170275</v>
       </c>
       <c r="O18" t="n">
         <v>455.3563165373337</v>
@@ -35981,7 +35981,7 @@
         <v>352.656398855307</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.1237947244811</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>297.3286753780732</v>
       </c>
       <c r="Q20" t="n">
-        <v>145.6005701020538</v>
+        <v>145.6005701020537</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>271.9836369037758</v>
       </c>
       <c r="L21" t="n">
-        <v>423.53725797531</v>
+        <v>21.52753089554784</v>
       </c>
       <c r="M21" t="n">
-        <v>150.962028438199</v>
+        <v>552.9717555179611</v>
       </c>
       <c r="N21" t="n">
         <v>581.1374775255555</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>216.187883422885</v>
+        <v>112.1918496639548</v>
       </c>
       <c r="K26" t="n">
-        <v>301.7154068560043</v>
+        <v>301.7154068560044</v>
       </c>
       <c r="L26" t="n">
-        <v>424.7793961497331</v>
+        <v>528.7754299086633</v>
       </c>
       <c r="M26" t="n">
         <v>478.8607005659604</v>
@@ -36607,16 +36607,16 @@
         <v>569.1195158467917</v>
       </c>
       <c r="O26" t="n">
-        <v>490.4282522608137</v>
+        <v>481.0872304940472</v>
       </c>
       <c r="P26" t="n">
-        <v>401.3247091370034</v>
+        <v>297.3286753780732</v>
       </c>
       <c r="Q26" t="n">
-        <v>145.6005701020537</v>
+        <v>249.5966038609839</v>
       </c>
       <c r="R26" t="n">
-        <v>34.13248225243672</v>
+        <v>43.47350401920094</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>84.36848171886828</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>271.9836369037758</v>
@@ -36680,13 +36680,13 @@
         <v>423.53725797531</v>
       </c>
       <c r="M27" t="n">
-        <v>552.9717555179611</v>
+        <v>235.330510157067</v>
       </c>
       <c r="N27" t="n">
         <v>581.1374775255555</v>
       </c>
       <c r="O27" t="n">
-        <v>53.34658945757172</v>
+        <v>455.3563165373337</v>
       </c>
       <c r="P27" t="n">
         <v>352.656398855307</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.28609301741156</v>
+        <v>59.28609301741155</v>
       </c>
       <c r="K28" t="n">
         <v>162.1730576867122</v>
       </c>
       <c r="L28" t="n">
-        <v>236.6297549442748</v>
+        <v>236.6297549442747</v>
       </c>
       <c r="M28" t="n">
         <v>255.8775214354404</v>
@@ -36771,7 +36771,7 @@
         <v>192.8275700421636</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.30993803873328</v>
+        <v>83.30993803873326</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>112.1918496639548</v>
       </c>
       <c r="K29" t="n">
-        <v>301.7154068560044</v>
+        <v>301.7154068560043</v>
       </c>
       <c r="L29" t="n">
-        <v>528.7754299086633</v>
+        <v>528.7754299086632</v>
       </c>
       <c r="M29" t="n">
-        <v>582.8567343248906</v>
+        <v>478.8607005659604</v>
       </c>
       <c r="N29" t="n">
         <v>569.1195158467917</v>
@@ -36847,10 +36847,10 @@
         <v>490.4282522608137</v>
       </c>
       <c r="P29" t="n">
-        <v>297.3286753780732</v>
+        <v>331.4611576305082</v>
       </c>
       <c r="Q29" t="n">
-        <v>179.7330523544905</v>
+        <v>249.5966038609839</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>271.9836369037758</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>423.53725797531</v>
@@ -36920,16 +36920,16 @@
         <v>552.9717555179611</v>
       </c>
       <c r="N30" t="n">
-        <v>581.1374775255555</v>
+        <v>535.4798690684373</v>
       </c>
       <c r="O30" t="n">
         <v>455.3563165373337</v>
       </c>
       <c r="P30" t="n">
-        <v>226.1389482188943</v>
+        <v>352.656398855307</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>191.1237947244811</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.28609301741157</v>
+        <v>59.28609301741156</v>
       </c>
       <c r="K31" t="n">
         <v>162.1730576867122</v>
@@ -37005,7 +37005,7 @@
         <v>232.9363362762839</v>
       </c>
       <c r="P31" t="n">
-        <v>192.8275700421632</v>
+        <v>192.8275700421636</v>
       </c>
       <c r="Q31" t="n">
         <v>83.30993803873328</v>
@@ -37081,7 +37081,7 @@
         <v>465.1234820878616</v>
       </c>
       <c r="O32" t="n">
-        <v>465.5268471186419</v>
+        <v>465.5268471186432</v>
       </c>
       <c r="P32" t="n">
         <v>297.3286753780732</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>84.3684817188683</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>271.9836369037758</v>
@@ -37154,19 +37154,19 @@
         <v>423.53725797531</v>
       </c>
       <c r="M33" t="n">
-        <v>503.6184272935063</v>
+        <v>552.9717555179611</v>
       </c>
       <c r="N33" t="n">
         <v>581.1374775255555</v>
       </c>
       <c r="O33" t="n">
-        <v>455.3563165373337</v>
+        <v>328.8388659009214</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>352.656398855307</v>
       </c>
       <c r="Q33" t="n">
-        <v>191.1237947244811</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.3948424959346</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>88.83153628323339</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.394842495934629</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>84.3684817188683</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>271.9836369037758</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>423.53725797531</v>
+        <v>377.879649518192</v>
       </c>
       <c r="M36" t="n">
         <v>552.9717555179611</v>
@@ -37397,7 +37397,7 @@
         <v>581.1374775255555</v>
       </c>
       <c r="O36" t="n">
-        <v>53.34658945757172</v>
+        <v>455.3563165373337</v>
       </c>
       <c r="P36" t="n">
         <v>352.656398855307</v>
@@ -37622,7 +37622,7 @@
         <v>84.3684817188683</v>
       </c>
       <c r="K39" t="n">
-        <v>61.09770454849518</v>
+        <v>271.9836369037758</v>
       </c>
       <c r="L39" t="n">
         <v>423.53725797531</v>
@@ -37631,7 +37631,7 @@
         <v>552.9717555179611</v>
       </c>
       <c r="N39" t="n">
-        <v>581.1374775255555</v>
+        <v>179.1277504457935</v>
       </c>
       <c r="O39" t="n">
         <v>455.3563165373337</v>
@@ -37640,7 +37640,7 @@
         <v>352.656398855307</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>191.1237947244811</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>112.1918496639548</v>
       </c>
       <c r="K41" t="n">
-        <v>301.7154068560044</v>
+        <v>301.715406856004</v>
       </c>
       <c r="L41" t="n">
         <v>424.7793961497331</v>
@@ -37798,7 +37798,7 @@
         <v>297.3286753780732</v>
       </c>
       <c r="Q41" t="n">
-        <v>145.6005701020538</v>
+        <v>145.6005701020537</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>84.3684817188683</v>
       </c>
       <c r="K42" t="n">
-        <v>271.9836369037758</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>423.53725797531</v>
       </c>
       <c r="M42" t="n">
-        <v>150.962028438199</v>
+        <v>552.9717555179611</v>
       </c>
       <c r="N42" t="n">
         <v>581.1374775255555</v>
       </c>
       <c r="O42" t="n">
-        <v>455.3563165373337</v>
+        <v>325.3302263613475</v>
       </c>
       <c r="P42" t="n">
         <v>352.656398855307</v>
@@ -37917,13 +37917,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.1884647022535977</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.206377793680986</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>58.17702392778207</v>
       </c>
       <c r="L43" t="n">
-        <v>135.0285636812791</v>
+        <v>132.6337211853446</v>
       </c>
       <c r="M43" t="n">
         <v>151.8814876765102</v>
@@ -38020,7 +38020,7 @@
         <v>301.7154068560044</v>
       </c>
       <c r="L44" t="n">
-        <v>424.7793961497331</v>
+        <v>424.7793961497327</v>
       </c>
       <c r="M44" t="n">
         <v>478.8607005659604</v>
@@ -38102,13 +38102,13 @@
         <v>423.53725797531</v>
       </c>
       <c r="M45" t="n">
-        <v>552.9717555179611</v>
+        <v>150.962028438199</v>
       </c>
       <c r="N45" t="n">
         <v>581.1374775255555</v>
       </c>
       <c r="O45" t="n">
-        <v>53.34658945757172</v>
+        <v>455.3563165373337</v>
       </c>
       <c r="P45" t="n">
         <v>352.656398855307</v>
@@ -38178,7 +38178,7 @@
         <v>58.17702392778207</v>
       </c>
       <c r="L46" t="n">
-        <v>135.0285636812791</v>
+        <v>132.6337211853446</v>
       </c>
       <c r="M46" t="n">
         <v>151.8814876765102</v>
@@ -38187,7 +38187,7 @@
         <v>151.5372141282072</v>
       </c>
       <c r="O46" t="n">
-        <v>128.9403025173537</v>
+        <v>131.3351450132882</v>
       </c>
       <c r="P46" t="n">
         <v>88.83153628323339</v>
